--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6AE14-E484-42BC-930D-0FA15D299D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4A86F-DFF6-4DE8-A9E9-D958074CB078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -954,11 +954,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,7 +976,7 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4A86F-DFF6-4DE8-A9E9-D958074CB078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F080A4-E90A-4D11-A2B0-D62C2CC096A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:I29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1638,7 +1638,8 @@
     <col min="6" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="10" width="17.25" customWidth="1"/>
-    <col min="11" max="13" width="26.625" customWidth="1"/>
+    <col min="11" max="12" width="26.625" customWidth="1"/>
+    <col min="13" max="13" width="87" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="63.25" customWidth="1"/>
     <col min="15" max="15" width="23.125" customWidth="1"/>
   </cols>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -346,7 +346,7 @@
     <t>21779,3066,-2383</t>
   </si>
   <si>
-    <t>220,156,-25,0,60</t>
+    <t>220,156,-25,0,80</t>
   </si>
   <si>
     <t>冰封城镇</t>
@@ -621,12 +621,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,20 +656,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -677,15 +663,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -693,16 +672,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -723,6 +702,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -730,55 +717,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,6 +747,38 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -801,21 +786,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -854,13 +833,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,91 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,67 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,18 +1098,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,6 +1118,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1165,17 +1159,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,168 +1187,159 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1377,40 +1356,40 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1804,8 +1783,8 @@
   <sheetPr/>
   <dimension ref="C3:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF93B7-23B1-43FE-83C1-60E740BC72CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,6 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>X,Y,Z,旋转,摄像机距离</t>
@@ -54,18 +63,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="188">
   <si>
     <t>Id</t>
   </si>
@@ -502,131 +511,146 @@
     <t>裂石峡谷</t>
   </si>
   <si>
+    <t>218,118,-67.8,0,55</t>
+  </si>
+  <si>
+    <t>4007,4012</t>
+  </si>
+  <si>
+    <t>20004009</t>
+  </si>
+  <si>
+    <t>地狱裂谷</t>
+  </si>
+  <si>
+    <t>24409,2910,-11440</t>
+  </si>
+  <si>
+    <t>248.8,91.3,-71.4,0,55</t>
+  </si>
+  <si>
+    <t>20004010</t>
+  </si>
+  <si>
+    <t>黑暗小镇</t>
+  </si>
+  <si>
+    <t>231,2910,-1310</t>
+  </si>
+  <si>
+    <t>15,120,-50,0,50</t>
+  </si>
+  <si>
+    <t>20005003,20005001,20005002</t>
+  </si>
+  <si>
+    <t>诡异小径</t>
+  </si>
+  <si>
+    <t>15993,2910,-7254</t>
+  </si>
+  <si>
+    <t>146.71,111.9,-7,0,75</t>
+  </si>
+  <si>
+    <t>5003,5011</t>
+  </si>
+  <si>
+    <t>20005004</t>
+  </si>
+  <si>
+    <t>1;181.47,28.96,4.81;41005001;1@1;137.82,29.24,50.21;41005001;1@1;169.49,28.93,-20.28;41005001;1@1;121.31,29.13,39.16;41005001;1@1;154.16,29.12,-5.63;41005001;1@1;164.62,29.12,24.86;41005001;1@1;168.49,29.11,19.34;41005001;1@1;120.28,29.13,56.85;41005001;1@1;177.93,28.96,-6.83;41005001;1@1;177.39,29.12,18.78;41005001;1@1;120.28,29.13,48.85;41005001;1@1;152.33,28.98,-46.42;41005001;1@1;119.17,29.11,13.81;41005001;1@1;118.96,29.13,26.81;41005001;1@1;155.74,29.28,15.66;41005001;1@1;160.84,29.12,38.38;41005001;1@1;130.34,29.24,51.17;41005001;1@1;140.90,29.12,12.32;41005001;1@1;155.39,28.98,-37.70;41005001;1@1;157.69,29.24,49.88;41005001;1@1;172.30,29.14,-44.45;41005001;1@1;140.90,29.28,26.01;41005001;1</t>
+  </si>
+  <si>
+    <t>腐蚀之地</t>
+  </si>
+  <si>
+    <t>15110,2910,10008</t>
+  </si>
+  <si>
+    <t>139.8,128.9,12.8,0,100</t>
+  </si>
+  <si>
+    <t>5004,5012</t>
+  </si>
+  <si>
+    <t>黑暗走廊一层</t>
+  </si>
+  <si>
+    <t>14457,2910,-7165</t>
+  </si>
+  <si>
+    <t>252.3,219.2,41.7,0,125</t>
+  </si>
+  <si>
+    <t>5005,5013</t>
+  </si>
+  <si>
+    <t>20005006</t>
+  </si>
+  <si>
+    <t>黑暗走廊二层</t>
+  </si>
+  <si>
+    <t>3289,2814,22929</t>
+  </si>
+  <si>
+    <t>-4,214.2,79.56,0,165</t>
+  </si>
+  <si>
+    <t>5006,5014</t>
+  </si>
+  <si>
+    <t>黑暗走廊三层</t>
+  </si>
+  <si>
+    <t>38905,2910,14113</t>
+  </si>
+  <si>
+    <t>228.8,254.1,0,0,165</t>
+  </si>
+  <si>
+    <t>5007,5015</t>
+  </si>
+  <si>
+    <t>黑暗之心</t>
+  </si>
+  <si>
+    <t>38443,2910,13759</t>
+  </si>
+  <si>
+    <t>270,176.1,85.7,0,80</t>
+  </si>
+  <si>
+    <t>碧空之地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>24465,1050,-15022</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterPosition</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>野怪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>14611,2911,-2951</t>
-  </si>
-  <si>
-    <t>218,118,-67.8,0,55</t>
-  </si>
-  <si>
-    <t>4007,4012</t>
-  </si>
-  <si>
-    <t>20004009</t>
-  </si>
-  <si>
-    <t>地狱裂谷</t>
-  </si>
-  <si>
-    <t>24409,2910,-11440</t>
-  </si>
-  <si>
-    <t>248.8,91.3,-71.4,0,55</t>
-  </si>
-  <si>
-    <t>20004010</t>
-  </si>
-  <si>
-    <t>黑暗小镇</t>
-  </si>
-  <si>
-    <t>231,2910,-1310</t>
-  </si>
-  <si>
-    <t>15,120,-50,0,50</t>
-  </si>
-  <si>
-    <t>20005003,20005001,20005002</t>
-  </si>
-  <si>
-    <t>诡异小径</t>
-  </si>
-  <si>
-    <t>15993,2910,-7254</t>
-  </si>
-  <si>
-    <t>146.71,111.9,-7,0,75</t>
-  </si>
-  <si>
-    <t>5003,5011</t>
-  </si>
-  <si>
-    <t>20005004</t>
-  </si>
-  <si>
-    <t>1;181.47,28.96,4.81;41005001;1@1;137.82,29.24,50.21;41005001;1@1;169.49,28.93,-20.28;41005001;1@1;121.31,29.13,39.16;41005001;1@1;154.16,29.12,-5.63;41005001;1@1;164.62,29.12,24.86;41005001;1@1;168.49,29.11,19.34;41005001;1@1;120.28,29.13,56.85;41005001;1@1;177.93,28.96,-6.83;41005001;1@1;177.39,29.12,18.78;41005001;1@1;120.28,29.13,48.85;41005001;1@1;152.33,28.98,-46.42;41005001;1@1;119.17,29.11,13.81;41005001;1@1;118.96,29.13,26.81;41005001;1@1;155.74,29.28,15.66;41005001;1@1;160.84,29.12,38.38;41005001;1@1;130.34,29.24,51.17;41005001;1@1;140.90,29.12,12.32;41005001;1@1;155.39,28.98,-37.70;41005001;1@1;157.69,29.24,49.88;41005001;1@1;172.30,29.14,-44.45;41005001;1@1;140.90,29.28,26.01;41005001;1</t>
-  </si>
-  <si>
-    <t>腐蚀之地</t>
-  </si>
-  <si>
-    <t>15110,2910,10008</t>
-  </si>
-  <si>
-    <t>139.8,128.9,12.8,0,100</t>
-  </si>
-  <si>
-    <t>5004,5012</t>
-  </si>
-  <si>
-    <t>黑暗走廊一层</t>
-  </si>
-  <si>
-    <t>14457,2910,-7165</t>
-  </si>
-  <si>
-    <t>252.3,219.2,41.7,0,125</t>
-  </si>
-  <si>
-    <t>5005,5013</t>
-  </si>
-  <si>
-    <t>20005006</t>
-  </si>
-  <si>
-    <t>黑暗走廊二层</t>
-  </si>
-  <si>
-    <t>3289,2814,22929</t>
-  </si>
-  <si>
-    <t>-4,214.2,79.56,0,165</t>
-  </si>
-  <si>
-    <t>5006,5014</t>
-  </si>
-  <si>
-    <t>黑暗走廊三层</t>
-  </si>
-  <si>
-    <t>38905,2910,14113</t>
-  </si>
-  <si>
-    <t>228.8,254.1,0,0,165</t>
-  </si>
-  <si>
-    <t>5007,5015</t>
-  </si>
-  <si>
-    <t>黑暗之心</t>
-  </si>
-  <si>
-    <t>38443,2910,13759</t>
-  </si>
-  <si>
-    <t>270,176.1,85.7,0,80</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +662,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -646,12 +671,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -659,148 +686,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,204 +732,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1065,7 +790,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,255 +818,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1371,82 +854,40 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1481,14 +922,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:G5" totalsRowShown="0">
-  <autoFilter ref="C4:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:G5" totalsRowShown="0">
+  <autoFilter ref="C4:G5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="ChapterName"/>
-    <tableColumn id="3" name="Music"/>
-    <tableColumn id="4" name="EnterLv"/>
-    <tableColumn id="5" name="BossIcon"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ChapterName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Music"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EnterLv"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BossIcon"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1775,19 +1216,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C3:O51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="5" width="16.75" customWidth="1"/>
@@ -1797,10 +1238,10 @@
     <col min="11" max="12" width="26.625" customWidth="1"/>
     <col min="13" max="13" width="87" customWidth="1"/>
     <col min="14" max="14" width="63.25" customWidth="1"/>
-    <col min="15" max="15" width="23.125" customWidth="1"/>
+    <col min="15" max="16" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+    <row r="3" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1840,8 +1281,11 @@
       <c r="O3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P3" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1881,8 +1325,11 @@
       <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P4" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1922,8 +1369,11 @@
       <c r="O5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P5" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
@@ -1951,20 +1401,21 @@
       <c r="K6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O6" s="6">
         <v>10001</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
@@ -1992,20 +1443,21 @@
       <c r="K7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="6">
         <v>10002</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
@@ -2036,17 +1488,18 @@
       <c r="L8" s="9">
         <v>1010</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="O8" s="6">
         <v>10003</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
@@ -2074,20 +1527,21 @@
       <c r="K9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O9" s="6">
         <v>10004</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
@@ -2118,17 +1572,18 @@
       <c r="L10" s="9">
         <v>1011</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O10" s="6">
         <v>10005</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
@@ -2159,17 +1614,18 @@
       <c r="L11" s="9">
         <v>1012</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O11" s="6">
         <v>10006</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
@@ -2197,20 +1653,21 @@
       <c r="K12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O12" s="6">
         <v>10007</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
@@ -2238,20 +1695,21 @@
       <c r="K13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O13" s="6">
         <v>10008</v>
       </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>20001</v>
       </c>
@@ -2279,20 +1737,21 @@
       <c r="K14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="15" t="s">
         <v>75</v>
       </c>
       <c r="O14" s="6">
         <v>20001</v>
       </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>20002</v>
       </c>
@@ -2320,20 +1779,21 @@
       <c r="K15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O15" s="6">
         <v>20002</v>
       </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>20003</v>
       </c>
@@ -2364,17 +1824,18 @@
       <c r="L16" s="9">
         <v>2012</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="15" t="s">
         <v>85</v>
       </c>
       <c r="O16" s="6">
         <v>20003</v>
       </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>20004</v>
       </c>
@@ -2402,20 +1863,21 @@
       <c r="K17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O17" s="6">
         <v>20004</v>
       </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>20005</v>
       </c>
@@ -2447,14 +1909,15 @@
         <v>2014</v>
       </c>
       <c r="M18" s="12"/>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O18" s="6">
         <v>20005</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>30001</v>
       </c>
@@ -2485,17 +1948,18 @@
       <c r="L19" s="9">
         <v>3002</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O19" s="6">
         <v>30001</v>
       </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>30002</v>
       </c>
@@ -2523,18 +1987,19 @@
       <c r="K20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="14" t="s">
         <v>101</v>
       </c>
       <c r="M20" s="12"/>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O20" s="6">
         <v>30002</v>
       </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>30003</v>
       </c>
@@ -2565,17 +2030,18 @@
       <c r="L21" s="9">
         <v>3012</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O21" s="6">
         <v>30003</v>
       </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>30004</v>
       </c>
@@ -2603,20 +2069,21 @@
       <c r="K22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="N22" s="15" t="s">
         <v>111</v>
       </c>
       <c r="O22" s="6">
         <v>30004</v>
       </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>30005</v>
       </c>
@@ -2644,20 +2111,21 @@
       <c r="K23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O23" s="6">
         <v>30005</v>
       </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>30006</v>
       </c>
@@ -2688,17 +2156,18 @@
       <c r="L24" s="9">
         <v>3015</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O24" s="6">
         <v>30006</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>40001</v>
       </c>
@@ -2726,20 +2195,21 @@
       <c r="K25" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="M25" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="15" t="s">
         <v>126</v>
       </c>
       <c r="O25" s="6">
         <v>40001</v>
       </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>40002</v>
       </c>
@@ -2767,18 +2237,19 @@
       <c r="K26" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="16" t="s">
         <v>130</v>
       </c>
       <c r="M26" s="12"/>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="6">
         <v>40002</v>
       </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>40003</v>
       </c>
@@ -2806,20 +2277,21 @@
       <c r="K27" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="N27" s="16" t="s">
+      <c r="N27" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O27" s="6">
         <v>40003</v>
       </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>40004</v>
       </c>
@@ -2847,20 +2319,21 @@
       <c r="K28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O28" s="6">
         <v>40004</v>
       </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>40005</v>
       </c>
@@ -2892,14 +2365,15 @@
         <v>4014</v>
       </c>
       <c r="M29" s="12"/>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O29" s="6">
         <v>40005</v>
       </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>40006</v>
       </c>
@@ -2922,30 +2396,31 @@
         <v>40006</v>
       </c>
       <c r="J30" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="L30" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="M30" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="M30" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="N30" s="16" t="s">
+      <c r="N30" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O30" s="6">
         <v>40006</v>
       </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>40007</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>29</v>
@@ -2963,30 +2438,31 @@
         <v>40007</v>
       </c>
       <c r="J31" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="L31" s="9">
         <v>4015</v>
       </c>
-      <c r="M31" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="N31" s="16" t="s">
+      <c r="M31" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="N31" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O31" s="6">
         <v>40007</v>
       </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>50001</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>29</v>
@@ -3004,30 +2480,31 @@
         <v>50001</v>
       </c>
       <c r="J32" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="L32" s="9">
         <v>5002</v>
       </c>
-      <c r="M32" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="N32" s="16" t="s">
+      <c r="M32" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N32" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O32" s="6">
         <v>50001</v>
       </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>50002</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>29</v>
@@ -3045,30 +2522,31 @@
         <v>50002</v>
       </c>
       <c r="J33" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="L33" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="M33" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="N33" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="O33" s="6">
         <v>50002</v>
       </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>50003</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>29</v>
@@ -3086,28 +2564,29 @@
         <v>50003</v>
       </c>
       <c r="J34" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="L34" s="15" t="s">
-        <v>166</v>
-      </c>
       <c r="M34" s="12"/>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O34" s="6">
         <v>50003</v>
       </c>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>50004</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>29</v>
@@ -3125,30 +2604,31 @@
         <v>50004</v>
       </c>
       <c r="J35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="M35" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="M35" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O35" s="6">
         <v>50004</v>
       </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>50005</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>29</v>
@@ -3166,28 +2646,29 @@
         <v>50005</v>
       </c>
       <c r="J36" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K36" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="L36" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="L36" s="15" t="s">
-        <v>175</v>
-      </c>
       <c r="M36" s="12"/>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O36" s="6">
         <v>50005</v>
       </c>
-    </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>50006</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>29</v>
@@ -3205,28 +2686,29 @@
         <v>50006</v>
       </c>
       <c r="J37" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="L37" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="L37" s="15" t="s">
-        <v>179</v>
-      </c>
       <c r="M37" s="12"/>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O37" s="6">
         <v>50006</v>
       </c>
-    </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:15">
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>50007</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>29</v>
@@ -3244,42 +2726,80 @@
         <v>50007</v>
       </c>
       <c r="J38" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="L38" s="9">
         <v>5016</v>
       </c>
       <c r="M38" s="12"/>
-      <c r="N38" s="16" t="s">
+      <c r="N38" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O38" s="6">
         <v>50007</v>
       </c>
-    </row>
-    <row r="39" ht="20.1" customHeight="1"/>
-    <row r="40" ht="20.1" customHeight="1"/>
-    <row r="41" ht="20.1" customHeight="1"/>
-    <row r="42" ht="20.1" customHeight="1"/>
-    <row r="43" ht="20.1" customHeight="1"/>
-    <row r="44" ht="20.1" customHeight="1"/>
-    <row r="45" ht="20.1" customHeight="1"/>
-    <row r="46" ht="20.1" customHeight="1"/>
-    <row r="47" ht="20.1" customHeight="1"/>
-    <row r="48" ht="20.1" customHeight="1"/>
-    <row r="49" ht="20.1" customHeight="1"/>
-    <row r="50" ht="20.1" customHeight="1"/>
-    <row r="51" ht="20.1" customHeight="1"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="6">
+        <v>60001</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="9">
+        <v>50</v>
+      </c>
+      <c r="G39" s="9">
+        <v>70002940</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="6">
+        <v>60001</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6">
+        <v>61001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF93B7-23B1-43FE-83C1-60E740BC72CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4348CB-B0EB-4C86-9D42-9B85B29A5854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="189">
   <si>
     <t>Id</t>
   </si>
@@ -643,6 +643,10 @@
   </si>
   <si>
     <t>14611,2911,-2951</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>240,120,-78,0,80</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1224,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2769,7 +2773,7 @@
         <v>183</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4348CB-B0EB-4C86-9D42-9B85B29A5854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20078633-CA2D-4267-84CA-89837547B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -1229,7 +1229,7 @@
   <dimension ref="C3:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2758,7 +2758,7 @@
         <v>29</v>
       </c>
       <c r="F39" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G39" s="9">
         <v>70002940</v>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20078633-CA2D-4267-84CA-89837547B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD129EE-5012-4617-8C54-CB1A5074BAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
   <si>
     <t>Id</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>15200,2930,-6764</t>
-  </si>
-  <si>
-    <t>148,120,-8,0,70</t>
   </si>
   <si>
     <t>1003,1009</t>
@@ -647,6 +644,70 @@
   </si>
   <si>
     <t>240,120,-78,0,80</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>148,120,-8,0,80</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻路</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,1009;10003,1010;10004,1001;10005,1011;10006,1012;10007,1013;10008,1014</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoPath</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002,2011;20003,2012;20004,2013;2005,2014</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001,2002;20003,2012;20004,2013;2005,2014</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001,2002;20002,2003;20004,2013;2005,2014</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001,2004;20002,2011;20003,2012;20004,2005</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,1002;10003,1010;10004,1001;10005,1011</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,1002;10002,1003;10004,1001;10005,1011</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,1004;10002,1009;10003,1010;10005,1011</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,1004;10002,1009;10003,1010;10004,1001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,1004;10002,1009;10003,1010;10004,1007;10005,1011;10006,1012;10008,1014</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,1004;10002,1009;10003,1010;10004,1007;10005,1011;10007,1008;10008,1006</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,1004;10002,1009;10003,1010;10004,1007;10005,1011;10006,1012;10007,1008</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -828,7 +889,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -874,6 +935,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,26 +1296,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:P51"/>
+  <dimension ref="C3:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="10" width="17.25" customWidth="1"/>
-    <col min="11" max="12" width="26.625" customWidth="1"/>
-    <col min="13" max="13" width="87" customWidth="1"/>
-    <col min="14" max="14" width="63.25" customWidth="1"/>
-    <col min="15" max="16" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="16.75" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="17.25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="17.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26.625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.625" customWidth="1"/>
+    <col min="13" max="13" width="73.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="87" customWidth="1"/>
+    <col min="15" max="15" width="63.25" customWidth="1"/>
+    <col min="16" max="17" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1277,19 +1350,22 @@
         <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1321,19 +1397,22 @@
         <v>20</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q4" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1365,19 +1444,22 @@
         <v>26</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q5" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
@@ -1408,18 +1490,21 @@
       <c r="L6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>10001</v>
       </c>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
@@ -1445,28 +1530,31 @@
         <v>37</v>
       </c>
       <c r="K7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="N7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="O7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>10002</v>
       </c>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>29</v>
@@ -1484,31 +1572,34 @@
         <v>10003</v>
       </c>
       <c r="J8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="L8" s="9">
         <v>1010</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>10003</v>
       </c>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>29</v>
@@ -1526,31 +1617,34 @@
         <v>10004</v>
       </c>
       <c r="J9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="L9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="15" t="s">
+      <c r="O9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <v>10004</v>
       </c>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>29</v>
@@ -1568,31 +1662,34 @@
         <v>10005</v>
       </c>
       <c r="J10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="L10" s="9">
         <v>1011</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>55</v>
+      <c r="M10" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="N10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>10005</v>
       </c>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>29</v>
@@ -1610,31 +1707,34 @@
         <v>10006</v>
       </c>
       <c r="J11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="L11" s="9">
         <v>1012</v>
       </c>
-      <c r="M11" s="15" t="s">
-        <v>59</v>
+      <c r="M11" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="N11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>10006</v>
       </c>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>29</v>
@@ -1652,31 +1752,34 @@
         <v>10007</v>
       </c>
       <c r="J12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="M12" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="15" t="s">
+      <c r="O12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="6">
         <v>10007</v>
       </c>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>29</v>
@@ -1694,31 +1797,34 @@
         <v>10008</v>
       </c>
       <c r="J13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="M13" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" s="15" t="s">
+      <c r="O13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="6">
+      <c r="P13" s="6">
         <v>10008</v>
       </c>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>20001</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>29</v>
@@ -1736,31 +1842,34 @@
         <v>20001</v>
       </c>
       <c r="J14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="M14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="O14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>20001</v>
       </c>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>20002</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>29</v>
@@ -1778,31 +1887,34 @@
         <v>20002</v>
       </c>
       <c r="J15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="M15" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="N15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="15" t="s">
+      <c r="O15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="6">
+      <c r="P15" s="6">
         <v>20002</v>
       </c>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>20003</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>29</v>
@@ -1820,31 +1932,34 @@
         <v>20003</v>
       </c>
       <c r="J16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="L16" s="9">
         <v>2012</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="6">
+      <c r="P16" s="6">
         <v>20003</v>
       </c>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>20004</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>29</v>
@@ -1862,31 +1977,34 @@
         <v>20004</v>
       </c>
       <c r="J17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="L17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="M17" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="N17" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M17" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="N17" s="15" t="s">
+      <c r="O17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="6">
+      <c r="P17" s="6">
         <v>20004</v>
       </c>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>20005</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>29</v>
@@ -1904,29 +2022,30 @@
         <v>20005</v>
       </c>
       <c r="J18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="L18" s="9">
         <v>2014</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="15" t="s">
+      <c r="M18" s="19"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
         <v>20005</v>
       </c>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>30001</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>29</v>
@@ -1944,31 +2063,32 @@
         <v>30001</v>
       </c>
       <c r="J19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="L19" s="9">
         <v>3002</v>
       </c>
-      <c r="M19" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="M19" s="19"/>
       <c r="N19" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19" s="6">
         <v>30001</v>
       </c>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>30002</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>29</v>
@@ -1986,29 +2106,30 @@
         <v>30002</v>
       </c>
       <c r="J20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="15" t="s">
+      <c r="M20" s="17"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <v>30002</v>
       </c>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>30003</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>29</v>
@@ -2026,31 +2147,32 @@
         <v>30003</v>
       </c>
       <c r="J21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="L21" s="9">
         <v>3012</v>
       </c>
-      <c r="M21" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="M21" s="19"/>
       <c r="N21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="6">
+      <c r="P21" s="6">
         <v>30003</v>
       </c>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>30004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>29</v>
@@ -2068,31 +2190,32 @@
         <v>30004</v>
       </c>
       <c r="J22" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="M22" s="17"/>
+      <c r="N22" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="O22" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="O22" s="6">
+      <c r="P22" s="6">
         <v>30004</v>
       </c>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>30005</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>29</v>
@@ -2110,31 +2233,32 @@
         <v>30005</v>
       </c>
       <c r="J23" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="M23" s="17"/>
+      <c r="N23" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="M23" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="N23" s="15" t="s">
+      <c r="O23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="6">
+      <c r="P23" s="6">
         <v>30005</v>
       </c>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>30006</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>29</v>
@@ -2152,31 +2276,32 @@
         <v>30006</v>
       </c>
       <c r="J24" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="L24" s="9">
         <v>3015</v>
       </c>
-      <c r="M24" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="M24" s="19"/>
       <c r="N24" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O24" s="6">
+      <c r="P24" s="6">
         <v>30006</v>
       </c>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>40001</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>29</v>
@@ -2194,31 +2319,32 @@
         <v>40001</v>
       </c>
       <c r="J25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="L25" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="M25" s="17"/>
+      <c r="N25" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="O25" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="N25" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="O25" s="6">
+      <c r="P25" s="6">
         <v>40001</v>
       </c>
-      <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>40002</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>29</v>
@@ -2236,29 +2362,30 @@
         <v>40002</v>
       </c>
       <c r="J26" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="L26" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="15" t="s">
+      <c r="M26" s="18"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O26" s="6">
+      <c r="P26" s="6">
         <v>40002</v>
       </c>
-      <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>40003</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>29</v>
@@ -2276,31 +2403,32 @@
         <v>40003</v>
       </c>
       <c r="J27" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="L27" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="M27" s="18"/>
+      <c r="N27" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="M27" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="N27" s="15" t="s">
+      <c r="O27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="6">
+      <c r="P27" s="6">
         <v>40003</v>
       </c>
-      <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>40004</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>29</v>
@@ -2318,31 +2446,32 @@
         <v>40004</v>
       </c>
       <c r="J28" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="L28" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="M28" s="18"/>
+      <c r="N28" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="M28" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N28" s="15" t="s">
+      <c r="O28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="6">
+      <c r="P28" s="6">
         <v>40004</v>
       </c>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>40005</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>29</v>
@@ -2360,29 +2489,30 @@
         <v>40005</v>
       </c>
       <c r="J29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="L29" s="9">
         <v>4014</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="15" t="s">
+      <c r="M29" s="19"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O29" s="6">
+      <c r="P29" s="6">
         <v>40005</v>
       </c>
-      <c r="P29" s="6"/>
-    </row>
-    <row r="30" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>40006</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>29</v>
@@ -2400,31 +2530,32 @@
         <v>40006</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="M30" s="17"/>
+      <c r="N30" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="M30" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="N30" s="15" t="s">
+      <c r="O30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O30" s="6">
+      <c r="P30" s="6">
         <v>40006</v>
       </c>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>40007</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>29</v>
@@ -2442,31 +2573,32 @@
         <v>40007</v>
       </c>
       <c r="J31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="L31" s="9">
         <v>4015</v>
       </c>
-      <c r="M31" s="15" t="s">
-        <v>151</v>
-      </c>
+      <c r="M31" s="19"/>
       <c r="N31" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="6">
+      <c r="P31" s="6">
         <v>40007</v>
       </c>
-      <c r="P31" s="6"/>
-    </row>
-    <row r="32" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>50001</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>29</v>
@@ -2484,31 +2616,32 @@
         <v>50001</v>
       </c>
       <c r="J32" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="L32" s="9">
         <v>5002</v>
       </c>
-      <c r="M32" s="15" t="s">
-        <v>155</v>
-      </c>
+      <c r="M32" s="19"/>
       <c r="N32" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="6">
+      <c r="P32" s="6">
         <v>50001</v>
       </c>
-      <c r="P32" s="6"/>
-    </row>
-    <row r="33" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>50002</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>29</v>
@@ -2526,31 +2659,32 @@
         <v>50002</v>
       </c>
       <c r="J33" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="L33" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="M33" s="17"/>
+      <c r="N33" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="O33" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="N33" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="O33" s="6">
+      <c r="P33" s="6">
         <v>50002</v>
       </c>
-      <c r="P33" s="6"/>
-    </row>
-    <row r="34" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>50003</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>29</v>
@@ -2568,29 +2702,30 @@
         <v>50003</v>
       </c>
       <c r="J34" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="L34" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="15" t="s">
+      <c r="M34" s="17"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="6">
+      <c r="P34" s="6">
         <v>50003</v>
       </c>
-      <c r="P34" s="6"/>
-    </row>
-    <row r="35" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>50004</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>29</v>
@@ -2608,31 +2743,32 @@
         <v>50004</v>
       </c>
       <c r="J35" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="M35" s="17"/>
+      <c r="N35" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="M35" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N35" s="15" t="s">
+      <c r="O35" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="6">
+      <c r="P35" s="6">
         <v>50004</v>
       </c>
-      <c r="P35" s="6"/>
-    </row>
-    <row r="36" spans="3:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>50005</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>29</v>
@@ -2650,29 +2786,30 @@
         <v>50005</v>
       </c>
       <c r="J36" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="L36" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="L36" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="15" t="s">
+      <c r="M36" s="17"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O36" s="6">
+      <c r="P36" s="6">
         <v>50005</v>
       </c>
-      <c r="P36" s="6"/>
-    </row>
-    <row r="37" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>50006</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>29</v>
@@ -2690,29 +2827,30 @@
         <v>50006</v>
       </c>
       <c r="J37" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="L37" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="L37" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="M37" s="12"/>
-      <c r="N37" s="15" t="s">
+      <c r="M37" s="17"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O37" s="6">
+      <c r="P37" s="6">
         <v>50006</v>
       </c>
-      <c r="P37" s="6"/>
-    </row>
-    <row r="38" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>50007</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>29</v>
@@ -2730,29 +2868,30 @@
         <v>50007</v>
       </c>
       <c r="J38" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="L38" s="9">
         <v>5016</v>
       </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="15" t="s">
+      <c r="M38" s="19"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="6">
+      <c r="P38" s="6">
         <v>50007</v>
       </c>
-      <c r="P38" s="6"/>
-    </row>
-    <row r="39" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
         <v>60001</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>29</v>
@@ -2770,30 +2909,31 @@
         <v>60001</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L39" s="9"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15" t="s">
+      <c r="M39" s="19"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6">
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6">
         <v>61001</v>
       </c>
     </row>
-    <row r="40" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD129EE-5012-4617-8C54-CB1A5074BAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,7 +43,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>X,Y,Z,旋转,摄像机距离</t>
@@ -63,18 +54,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
   <si>
     <t>Id</t>
   </si>
@@ -106,6 +97,9 @@
     <t>传送点</t>
   </si>
   <si>
+    <t>寻路</t>
+  </si>
+  <si>
     <t>NPC</t>
   </si>
   <si>
@@ -139,6 +133,9 @@
     <t>TransmitPos</t>
   </si>
   <si>
+    <t>AutoPath</t>
+  </si>
+  <si>
     <t>NpcList</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
     <t>MonsterGroup</t>
   </si>
   <si>
+    <t>MonsterPosition</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -178,6 +178,9 @@
     <t>1002,1004</t>
   </si>
   <si>
+    <t>10002,1009;10003,1010;10004,1001;10005,1011;10006,1012;10007,1013;10008,1014</t>
+  </si>
+  <si>
     <t>20001001,20001002,20001003,20001004,20001005,20001006,20001007,20001008,20001009,20001011</t>
   </si>
   <si>
@@ -190,9 +193,15 @@
     <t>15200,2930,-6764</t>
   </si>
   <si>
+    <t>148,120,-8,0,80</t>
+  </si>
+  <si>
     <t>1003,1009</t>
   </si>
   <si>
+    <t>10001,1002;10003,1010;10004,1001;10005,1011</t>
+  </si>
+  <si>
     <t>20001013</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
     <t>158,95,-25,0,70</t>
   </si>
   <si>
+    <t>10001,1002;10002,1003;10004,1001;10005,1011</t>
+  </si>
+  <si>
     <t>20001014,20001012</t>
   </si>
   <si>
@@ -226,6 +238,9 @@
     <t>1001,1005,1007</t>
   </si>
   <si>
+    <t>10001,1004;10002,1009;10003,1010;10005,1011</t>
+  </si>
+  <si>
     <t>20001015</t>
   </si>
   <si>
@@ -238,6 +253,9 @@
     <t>201,101,-45,0,50</t>
   </si>
   <si>
+    <t>10001,1004;10002,1009;10003,1010;10004,1001</t>
+  </si>
+  <si>
     <t>20001017</t>
   </si>
   <si>
@@ -250,6 +268,9 @@
     <t>147,121,-12,0,80</t>
   </si>
   <si>
+    <t>10001,1004;10002,1009;10003,1010;10004,1007;10005,1011;10007,1008;10008,1006</t>
+  </si>
+  <si>
     <t>20001022</t>
   </si>
   <si>
@@ -265,6 +286,9 @@
     <t>1008,1013</t>
   </si>
   <si>
+    <t>10001,1004;10002,1009;10003,1010;10004,1007;10005,1011;10006,1012;10008,1014</t>
+  </si>
+  <si>
     <t>20001019</t>
   </si>
   <si>
@@ -280,6 +304,9 @@
     <t>1006,1014</t>
   </si>
   <si>
+    <t>10001,1004;10002,1009;10003,1010;10004,1007;10005,1011;10006,1012;10007,1008</t>
+  </si>
+  <si>
     <t>20001021</t>
   </si>
   <si>
@@ -295,6 +322,9 @@
     <t>2002,2004</t>
   </si>
   <si>
+    <t>20002,2011;20003,2012;20004,2013;2005,2014</t>
+  </si>
+  <si>
     <t>20002001,20002002,20002003,20002007,20002008,20001009</t>
   </si>
   <si>
@@ -313,6 +343,9 @@
     <t>2003,2011</t>
   </si>
   <si>
+    <t>20001,2002;20003,2012;20004,2013;2005,2014</t>
+  </si>
+  <si>
     <t>20002004</t>
   </si>
   <si>
@@ -325,6 +358,9 @@
     <t>100,104,-82,0,50</t>
   </si>
   <si>
+    <t>20001,2002;20002,2003;20004,2013;2005,2014</t>
+  </si>
+  <si>
     <t>20002005</t>
   </si>
   <si>
@@ -343,6 +379,9 @@
     <t>2005,2013</t>
   </si>
   <si>
+    <t>20001,2004;20002,2011;20003,2012;20004,2005</t>
+  </si>
+  <si>
     <t>20002006</t>
   </si>
   <si>
@@ -508,6 +547,9 @@
     <t>裂石峡谷</t>
   </si>
   <si>
+    <t>14611,2911,-2951</t>
+  </si>
+  <si>
     <t>218,118,-67.8,0,55</t>
   </si>
   <si>
@@ -620,102 +662,25 @@
   </si>
   <si>
     <t>碧空之地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>24465,1050,-15022</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterPosition</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>野怪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>14611,2911,-2951</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>240,120,-78,0,80</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>148,120,-8,0,80</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻路</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,1009;10003,1010;10004,1001;10005,1011;10006,1012;10007,1013;10008,1014</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoPath</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>20002,2011;20003,2012;20004,2013;2005,2014</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001,2002;20003,2012;20004,2013;2005,2014</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001,2002;20002,2003;20004,2013;2005,2014</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001,2004;20002,2011;20003,2012;20004,2005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,1002;10003,1010;10004,1001;10005,1011</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,1002;10002,1003;10004,1001;10005,1011</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,1004;10002,1009;10003,1010;10005,1011</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,1004;10002,1009;10003,1010;10004,1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,1004;10002,1009;10003,1010;10004,1007;10005,1011;10006,1012;10008,1014</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,1004;10002,1009;10003,1010;10004,1007;10005,1011;10007,1008;10008,1006</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,1004;10002,1009;10003,1010;10004,1007;10005,1011;10006,1012;10007,1008</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,7 +692,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -736,14 +700,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -751,32 +713,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,18 +882,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -855,7 +1126,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,13 +1154,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -919,49 +1432,91 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 5" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -996,14 +1551,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:G5" totalsRowShown="0">
-  <autoFilter ref="C4:G5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:G5" totalsRowShown="0">
+  <autoFilter ref="C4:G5"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ChapterName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Music"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EnterLv"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BossIcon"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="ChapterName"/>
+    <tableColumn id="3" name="Music"/>
+    <tableColumn id="4" name="EnterLv"/>
+    <tableColumn id="5" name="BossIcon"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1290,35 +1845,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C3:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="16.75" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="17.25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="17.25" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="26.625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.625" customWidth="1"/>
-    <col min="13" max="13" width="73.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="12" width="26.625" customWidth="1"/>
+    <col min="13" max="13" width="73.375" customWidth="1"/>
     <col min="14" max="14" width="87" customWidth="1"/>
     <col min="15" max="15" width="63.25" customWidth="1"/>
     <col min="16" max="17" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1350,124 +1903,124 @@
         <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="Q5" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -1476,43 +2029,43 @@
         <v>70001910</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I6" s="6">
         <v>10001</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="15" t="s">
         <v>35</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P6" s="6">
         <v>10001</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" s="10">
         <v>3</v>
@@ -1521,43 +2074,43 @@
         <v>70001920</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I7" s="6">
         <v>10002</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>37</v>
+      <c r="J7" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="P7" s="6">
         <v>10002</v>
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7">
         <v>5</v>
@@ -1566,43 +2119,43 @@
         <v>70001930</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I8" s="6">
         <v>10003</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>42</v>
+      <c r="J8" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L8" s="9">
         <v>1010</v>
       </c>
-      <c r="M8" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>45</v>
+      <c r="M8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="P8" s="6">
         <v>10003</v>
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7">
         <v>6</v>
@@ -1611,43 +2164,43 @@
         <v>70001940</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I9" s="6">
         <v>10004</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>47</v>
+      <c r="J9" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P9" s="6">
         <v>10004</v>
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7">
         <v>6</v>
@@ -1656,43 +2209,43 @@
         <v>70001950</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I10" s="6">
         <v>10005</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>52</v>
+      <c r="J10" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L10" s="9">
         <v>1011</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>35</v>
+      <c r="M10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P10" s="6">
         <v>10005</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7">
         <v>12</v>
@@ -1701,43 +2254,43 @@
         <v>70001960</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I11" s="6">
         <v>10006</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>56</v>
+      <c r="J11" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L11" s="9">
         <v>1012</v>
       </c>
-      <c r="M11" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>35</v>
+      <c r="M11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P11" s="6">
         <v>10006</v>
       </c>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7">
         <v>8</v>
@@ -1746,43 +2299,43 @@
         <v>70001970</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="6">
         <v>10007</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>60</v>
+      <c r="J12" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>35</v>
+        <v>71</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P12" s="6">
         <v>10007</v>
       </c>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7">
         <v>8</v>
@@ -1791,43 +2344,43 @@
         <v>70002910</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I13" s="6">
         <v>10008</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>65</v>
+      <c r="J13" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>35</v>
+        <v>77</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P13" s="6">
         <v>10008</v>
       </c>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C14" s="6">
         <v>20001</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" s="9">
         <v>18</v>
@@ -1836,43 +2389,43 @@
         <v>70002920</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I14" s="6">
         <v>20001</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>70</v>
+      <c r="J14" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="P14" s="6">
         <v>20001</v>
       </c>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C15" s="6">
         <v>20002</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" s="9">
         <v>21</v>
@@ -1881,43 +2434,43 @@
         <v>70002920</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I15" s="6">
         <v>20002</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>76</v>
+      <c r="J15" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>35</v>
+        <v>90</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P15" s="6">
         <v>20002</v>
       </c>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C16" s="6">
         <v>20003</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" s="9">
         <v>24</v>
@@ -1926,43 +2479,43 @@
         <v>70002930</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I16" s="6">
         <v>20003</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>81</v>
+      <c r="J16" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="L16" s="9">
         <v>2012</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>84</v>
+      <c r="M16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="P16" s="6">
         <v>20003</v>
       </c>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C17" s="6">
         <v>20004</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F17" s="9">
         <v>26</v>
@@ -1971,43 +2524,43 @@
         <v>70002940</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I17" s="6">
         <v>20004</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>86</v>
+      <c r="J17" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>35</v>
+        <v>102</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P17" s="6">
         <v>20004</v>
       </c>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C18" s="6">
         <v>20005</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F18" s="9">
         <v>28</v>
@@ -2016,39 +2569,39 @@
         <v>70002950</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I18" s="6">
         <v>20005</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>91</v>
+      <c r="J18" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="L18" s="9">
         <v>2014</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="15" t="s">
-        <v>35</v>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P18" s="6">
         <v>20005</v>
       </c>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C19" s="6">
         <v>30001</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F19" s="9">
         <v>30</v>
@@ -2057,41 +2610,41 @@
         <v>70003910</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I19" s="6">
         <v>30001</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>94</v>
+      <c r="J19" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="L19" s="9">
         <v>3002</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>35</v>
+      <c r="M19" s="12"/>
+      <c r="N19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P19" s="6">
         <v>30001</v>
       </c>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C20" s="6">
         <v>30002</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F20" s="9">
         <v>30</v>
@@ -2100,39 +2653,39 @@
         <v>70003920</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I20" s="6">
         <v>30002</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>98</v>
+      <c r="J20" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="15" t="s">
-        <v>35</v>
+        <v>115</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P20" s="6">
         <v>30002</v>
       </c>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C21" s="6">
         <v>30003</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F21" s="9">
         <v>32</v>
@@ -2141,41 +2694,41 @@
         <v>70003930</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I21" s="6">
         <v>30003</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>102</v>
+      <c r="J21" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="L21" s="9">
         <v>3012</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>35</v>
+      <c r="M21" s="12"/>
+      <c r="N21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P21" s="6">
         <v>30003</v>
       </c>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C22" s="6">
         <v>30004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F22" s="9">
         <v>34</v>
@@ -2184,41 +2737,41 @@
         <v>70003940</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I22" s="6">
         <v>30004</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>106</v>
+      <c r="J22" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>110</v>
+        <v>123</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="P22" s="6">
         <v>30004</v>
       </c>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C23" s="6">
         <v>30005</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F23" s="9">
         <v>36</v>
@@ -2227,41 +2780,41 @@
         <v>70003950</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I23" s="6">
         <v>30005</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>112</v>
+      <c r="J23" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>35</v>
+        <v>129</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P23" s="6">
         <v>30005</v>
       </c>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C24" s="6">
         <v>30006</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F24" s="9">
         <v>38</v>
@@ -2270,41 +2823,41 @@
         <v>70003950</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I24" s="6">
         <v>30006</v>
       </c>
-      <c r="J24" s="13" t="s">
-        <v>117</v>
+      <c r="J24" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="L24" s="9">
         <v>3015</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>35</v>
+      <c r="M24" s="12"/>
+      <c r="N24" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P24" s="6">
         <v>30006</v>
       </c>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C25" s="6">
         <v>40001</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F25" s="9">
         <v>40</v>
@@ -2313,41 +2866,41 @@
         <v>70004910</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I25" s="6">
         <v>40001</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>121</v>
+      <c r="J25" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>125</v>
+        <v>138</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="P25" s="6">
         <v>40001</v>
       </c>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C26" s="6">
         <v>40002</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F26" s="9">
         <v>40</v>
@@ -2356,39 +2909,39 @@
         <v>70004920</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I26" s="6">
         <v>40002</v>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>127</v>
+      <c r="J26" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="15" t="s">
-        <v>35</v>
+        <v>144</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P26" s="6">
         <v>40002</v>
       </c>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C27" s="6">
         <v>40003</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F27" s="9">
         <v>42</v>
@@ -2397,41 +2950,41 @@
         <v>70004930</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I27" s="6">
         <v>40003</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>131</v>
+      <c r="J27" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>35</v>
+        <v>148</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="N27" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P27" s="6">
         <v>40003</v>
       </c>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C28" s="6">
         <v>40004</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F28" s="9">
         <v>44</v>
@@ -2440,41 +2993,41 @@
         <v>70004940</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I28" s="6">
         <v>40004</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>136</v>
+      <c r="J28" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>35</v>
+        <v>153</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P28" s="6">
         <v>40004</v>
       </c>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C29" s="6">
         <v>40005</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F29" s="9">
         <v>44</v>
@@ -2483,39 +3036,39 @@
         <v>70004950</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I29" s="6">
         <v>40005</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>141</v>
+      <c r="J29" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L29" s="9">
         <v>4014</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="15" t="s">
-        <v>35</v>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P29" s="6">
         <v>40005</v>
       </c>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C30" s="6">
         <v>40006</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F30" s="9">
         <v>46</v>
@@ -2524,41 +3077,41 @@
         <v>70004950</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I30" s="6">
         <v>40006</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>186</v>
+      <c r="J30" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>35</v>
+        <v>161</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P30" s="6">
         <v>40006</v>
       </c>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C31" s="6">
         <v>40007</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F31" s="9">
         <v>48</v>
@@ -2567,41 +3120,41 @@
         <v>70004950</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I31" s="6">
         <v>40007</v>
       </c>
-      <c r="J31" s="13" t="s">
-        <v>148</v>
+      <c r="J31" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L31" s="9">
         <v>4015</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>35</v>
+      <c r="M31" s="12"/>
+      <c r="N31" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P31" s="6">
         <v>40007</v>
       </c>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C32" s="6">
         <v>50001</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F32" s="9">
         <v>50</v>
@@ -2610,41 +3163,41 @@
         <v>70002940</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I32" s="6">
         <v>50001</v>
       </c>
-      <c r="J32" s="13" t="s">
-        <v>152</v>
+      <c r="J32" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L32" s="9">
         <v>5002</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>35</v>
+      <c r="M32" s="12"/>
+      <c r="N32" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P32" s="6">
         <v>50001</v>
       </c>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C33" s="6">
         <v>50002</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33" s="9">
         <v>52</v>
@@ -2653,41 +3206,41 @@
         <v>70002950</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I33" s="6">
         <v>50002</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>156</v>
+      <c r="J33" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>160</v>
+        <v>174</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="P33" s="6">
         <v>50002</v>
       </c>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C34" s="6">
         <v>50003</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F34" s="9">
         <v>52</v>
@@ -2696,39 +3249,39 @@
         <v>70001910</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I34" s="6">
         <v>50003</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>162</v>
+      <c r="J34" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="15" t="s">
-        <v>35</v>
+        <v>180</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P34" s="6">
         <v>50003</v>
       </c>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C35" s="6">
         <v>50004</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F35" s="9">
         <v>54</v>
@@ -2737,41 +3290,41 @@
         <v>70001920</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I35" s="6">
         <v>50004</v>
       </c>
-      <c r="J35" s="13" t="s">
-        <v>166</v>
+      <c r="J35" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="M35" s="17"/>
-      <c r="N35" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>35</v>
+        <v>184</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M35" s="12"/>
+      <c r="N35" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P35" s="6">
         <v>50004</v>
       </c>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C36" s="6">
         <v>50005</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F36" s="9">
         <v>54</v>
@@ -2780,39 +3333,39 @@
         <v>70001930</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I36" s="6">
         <v>50005</v>
       </c>
-      <c r="J36" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="M36" s="17"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="15" t="s">
-        <v>35</v>
+      <c r="J36" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="M36" s="12"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P36" s="6">
         <v>50005</v>
       </c>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="20.1" customHeight="1" spans="3:17">
       <c r="C37" s="6">
         <v>50006</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F37" s="9">
         <v>54</v>
@@ -2821,39 +3374,39 @@
         <v>70001930</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I37" s="6">
         <v>50006</v>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>175</v>
+      <c r="J37" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M37" s="17"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="15" t="s">
-        <v>35</v>
+        <v>193</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="M37" s="12"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P37" s="6">
         <v>50006</v>
       </c>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="20.1" customHeight="1" spans="3:17">
       <c r="C38" s="6">
         <v>50007</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F38" s="9">
         <v>56</v>
@@ -2862,39 +3415,39 @@
         <v>70001930</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I38" s="6">
         <v>50007</v>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>179</v>
+      <c r="J38" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L38" s="9">
         <v>5016</v>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="15" t="s">
-        <v>35</v>
+      <c r="M38" s="12"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P38" s="6">
         <v>50007</v>
       </c>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
       <c r="C39" s="6">
         <v>60001</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F39" s="9">
         <v>60</v>
@@ -2903,47 +3456,47 @@
         <v>70002940</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I39" s="6">
         <v>60001</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>182</v>
+      <c r="J39" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L39" s="9"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15" t="s">
-        <v>35</v>
+      <c r="M39" s="12"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6">
         <v>61001</v>
       </c>
     </row>
-    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="20.1" customHeight="1"/>
+    <row r="41" ht="20.1" customHeight="1"/>
+    <row r="42" ht="20.1" customHeight="1"/>
+    <row r="43" ht="20.1" customHeight="1"/>
+    <row r="44" ht="20.1" customHeight="1"/>
+    <row r="45" ht="20.1" customHeight="1"/>
+    <row r="46" ht="20.1" customHeight="1"/>
+    <row r="47" ht="20.1" customHeight="1"/>
+    <row r="48" ht="20.1" customHeight="1"/>
+    <row r="49" ht="20.1" customHeight="1"/>
+    <row r="50" ht="20.1" customHeight="1"/>
+    <row r="51" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C6C928-9022-495A-B1DD-8CC7140B8354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,6 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>X,Y,Z,旋转,摄像机距离</t>
@@ -54,18 +63,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="201">
   <si>
     <t>Id</t>
   </si>
@@ -253,9 +262,6 @@
     <t>201,101,-45,0,50</t>
   </si>
   <si>
-    <t>10001,1004;10002,1009;10003,1010;10004,1001</t>
-  </si>
-  <si>
     <t>20001017</t>
   </si>
   <si>
@@ -668,19 +674,17 @@
   </si>
   <si>
     <t>240,120,-78,0,80</t>
+  </si>
+  <si>
+    <t>10001,1004;10002,1009;10003,1010;10004,1005</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +696,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -700,12 +705,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -713,155 +720,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,204 +766,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1126,7 +824,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,255 +852,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1432,91 +888,49 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1551,14 +965,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:G5" totalsRowShown="0">
-  <autoFilter ref="C4:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:G5" totalsRowShown="0">
+  <autoFilter ref="C4:G5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="ChapterName"/>
-    <tableColumn id="3" name="Music"/>
-    <tableColumn id="4" name="EnterLv"/>
-    <tableColumn id="5" name="BossIcon"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ChapterName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Music"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EnterLv"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BossIcon"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1845,19 +1259,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="5" width="16.75" customWidth="1"/>
@@ -1871,7 +1285,7 @@
     <col min="16" max="17" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="3" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="4" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +1379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="5" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -2012,7 +1426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="6" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
@@ -2040,16 +1454,16 @@
       <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P6" s="6">
@@ -2057,7 +1471,7 @@
       </c>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="7" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
@@ -2085,16 +1499,16 @@
       <c r="K7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="6">
@@ -2102,7 +1516,7 @@
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="8" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
@@ -2133,13 +1547,13 @@
       <c r="L8" s="9">
         <v>1010</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>52</v>
       </c>
       <c r="P8" s="6">
@@ -2147,7 +1561,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="9" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
@@ -2175,16 +1589,16 @@
       <c r="K9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P9" s="6">
@@ -2192,7 +1606,7 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="10" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
@@ -2223,13 +1637,13 @@
       <c r="L10" s="9">
         <v>1011</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="N10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P10" s="6">
@@ -2237,12 +1651,12 @@
       </c>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="11" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>32</v>
@@ -2260,21 +1674,21 @@
         <v>10006</v>
       </c>
       <c r="J11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="L11" s="9">
         <v>1012</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P11" s="6">
@@ -2282,12 +1696,12 @@
       </c>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="12" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>32</v>
@@ -2305,21 +1719,21 @@
         <v>10007</v>
       </c>
       <c r="J12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="M12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="N12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P12" s="6">
@@ -2327,12 +1741,12 @@
       </c>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="13" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>32</v>
@@ -2350,21 +1764,21 @@
         <v>10008</v>
       </c>
       <c r="J13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="M13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="N13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P13" s="6">
@@ -2372,12 +1786,12 @@
       </c>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="14" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>20001</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>32</v>
@@ -2395,34 +1809,34 @@
         <v>20001</v>
       </c>
       <c r="J14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="M14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="N14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="O14" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="P14" s="6">
         <v>20001</v>
       </c>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="15" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>20002</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>32</v>
@@ -2440,21 +1854,21 @@
         <v>20002</v>
       </c>
       <c r="J15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="M15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="N15" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="N15" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P15" s="6">
@@ -2462,12 +1876,12 @@
       </c>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="16" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>20003</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>32</v>
@@ -2485,34 +1899,34 @@
         <v>20003</v>
       </c>
       <c r="J16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="L16" s="9">
         <v>2012</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="O16" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="P16" s="6">
         <v>20003</v>
       </c>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="17" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>20004</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>32</v>
@@ -2530,21 +1944,21 @@
         <v>20004</v>
       </c>
       <c r="J17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="L17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="M17" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="N17" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P17" s="6">
@@ -2552,12 +1966,12 @@
       </c>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="18" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>20005</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>32</v>
@@ -2575,17 +1989,17 @@
         <v>20005</v>
       </c>
       <c r="J18" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="L18" s="9">
         <v>2014</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P18" s="6">
@@ -2593,12 +2007,12 @@
       </c>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="19" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>30001</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>32</v>
@@ -2616,19 +2030,19 @@
         <v>30001</v>
       </c>
       <c r="J19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="L19" s="9">
         <v>3002</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="O19" s="19" t="s">
+      <c r="N19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P19" s="6">
@@ -2636,12 +2050,12 @@
       </c>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="20" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>30002</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>32</v>
@@ -2659,17 +2073,17 @@
         <v>30002</v>
       </c>
       <c r="J20" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P20" s="6">
@@ -2677,12 +2091,12 @@
       </c>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="21" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>30003</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>32</v>
@@ -2700,19 +2114,19 @@
         <v>30003</v>
       </c>
       <c r="J21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="L21" s="9">
         <v>3012</v>
       </c>
       <c r="M21" s="12"/>
-      <c r="N21" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="O21" s="19" t="s">
+      <c r="N21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P21" s="6">
@@ -2720,12 +2134,12 @@
       </c>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="22" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>30004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>32</v>
@@ -2743,32 +2157,32 @@
         <v>30004</v>
       </c>
       <c r="J22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="M22" s="12"/>
+      <c r="N22" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="19" t="s">
+      <c r="O22" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="P22" s="6">
         <v>30004</v>
       </c>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="23" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>30005</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>32</v>
@@ -2786,19 +2200,19 @@
         <v>30005</v>
       </c>
       <c r="J23" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="M23" s="12"/>
+      <c r="N23" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P23" s="6">
@@ -2806,12 +2220,12 @@
       </c>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="24" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>30006</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>32</v>
@@ -2829,19 +2243,19 @@
         <v>30006</v>
       </c>
       <c r="J24" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="L24" s="9">
         <v>3015</v>
       </c>
       <c r="M24" s="12"/>
-      <c r="N24" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="O24" s="19" t="s">
+      <c r="N24" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P24" s="6">
@@ -2849,12 +2263,12 @@
       </c>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="25" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>40001</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>32</v>
@@ -2872,32 +2286,32 @@
         <v>40001</v>
       </c>
       <c r="J25" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="L25" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="M25" s="12"/>
+      <c r="N25" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="19" t="s">
+      <c r="O25" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="P25" s="6">
         <v>40001</v>
       </c>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="26" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>40002</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>32</v>
@@ -2915,17 +2329,17 @@
         <v>40002</v>
       </c>
       <c r="J26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="L26" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="M26" s="16"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P26" s="6">
@@ -2933,12 +2347,12 @@
       </c>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="27" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>40003</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>32</v>
@@ -2956,19 +2370,19 @@
         <v>40003</v>
       </c>
       <c r="J27" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="L27" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="M27" s="15"/>
+      <c r="N27" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P27" s="6">
@@ -2976,12 +2390,12 @@
       </c>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="28" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>40004</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>32</v>
@@ -2999,19 +2413,19 @@
         <v>40004</v>
       </c>
       <c r="J28" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="L28" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="M28" s="15"/>
+      <c r="N28" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="O28" s="19" t="s">
+      <c r="O28" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P28" s="6">
@@ -3019,12 +2433,12 @@
       </c>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="29" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>40005</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>32</v>
@@ -3042,17 +2456,17 @@
         <v>40005</v>
       </c>
       <c r="J29" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="L29" s="9">
         <v>4014</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P29" s="6">
@@ -3060,12 +2474,12 @@
       </c>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="30" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>40006</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>32</v>
@@ -3083,19 +2497,19 @@
         <v>40006</v>
       </c>
       <c r="J30" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="L30" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="M30" s="12"/>
+      <c r="N30" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P30" s="6">
@@ -3103,12 +2517,12 @@
       </c>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="31" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>40007</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>32</v>
@@ -3126,19 +2540,19 @@
         <v>40007</v>
       </c>
       <c r="J31" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="L31" s="9">
         <v>4015</v>
       </c>
       <c r="M31" s="12"/>
-      <c r="N31" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="O31" s="19" t="s">
+      <c r="N31" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O31" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P31" s="6">
@@ -3146,12 +2560,12 @@
       </c>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="32" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>50001</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>32</v>
@@ -3169,19 +2583,19 @@
         <v>50001</v>
       </c>
       <c r="J32" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="L32" s="9">
         <v>5002</v>
       </c>
       <c r="M32" s="12"/>
-      <c r="N32" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="O32" s="19" t="s">
+      <c r="N32" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O32" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P32" s="6">
@@ -3189,12 +2603,12 @@
       </c>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="33" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>50002</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>32</v>
@@ -3212,32 +2626,32 @@
         <v>50002</v>
       </c>
       <c r="J33" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="L33" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="M33" s="12"/>
+      <c r="N33" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="19" t="s">
+      <c r="O33" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>177</v>
       </c>
       <c r="P33" s="6">
         <v>50002</v>
       </c>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="34" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>50003</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>32</v>
@@ -3255,17 +2669,17 @@
         <v>50003</v>
       </c>
       <c r="J34" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="19" t="s">
+      <c r="O34" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P34" s="6">
@@ -3273,12 +2687,12 @@
       </c>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="35" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>50004</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>32</v>
@@ -3296,19 +2710,19 @@
         <v>50004</v>
       </c>
       <c r="J35" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="M35" s="12"/>
+      <c r="N35" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="O35" s="19" t="s">
+      <c r="O35" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P35" s="6">
@@ -3316,12 +2730,12 @@
       </c>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="36" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>50005</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>32</v>
@@ -3339,17 +2753,17 @@
         <v>50005</v>
       </c>
       <c r="J36" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="K36" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="L36" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>190</v>
       </c>
       <c r="M36" s="12"/>
       <c r="N36" s="13"/>
-      <c r="O36" s="19" t="s">
+      <c r="O36" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P36" s="6">
@@ -3357,12 +2771,12 @@
       </c>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:17">
+    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>50006</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>32</v>
@@ -3380,17 +2794,17 @@
         <v>50006</v>
       </c>
       <c r="J37" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="L37" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="M37" s="12"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="19" t="s">
+      <c r="O37" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P37" s="6">
@@ -3398,12 +2812,12 @@
       </c>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:17">
+    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>50007</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>32</v>
@@ -3421,17 +2835,17 @@
         <v>50007</v>
       </c>
       <c r="J38" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="L38" s="9">
         <v>5016</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="13"/>
-      <c r="O38" s="19" t="s">
+      <c r="O38" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P38" s="6">
@@ -3439,12 +2853,12 @@
       </c>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:17">
+    <row r="39" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
         <v>60001</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>32</v>
@@ -3462,15 +2876,15 @@
         <v>60001</v>
       </c>
       <c r="J39" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="12"/>
       <c r="N39" s="13"/>
-      <c r="O39" s="19" t="s">
+      <c r="O39" s="18" t="s">
         <v>39</v>
       </c>
       <c r="P39" s="6"/>
@@ -3478,25 +2892,25 @@
         <v>61001</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1"/>
-    <row r="41" ht="20.1" customHeight="1"/>
-    <row r="42" ht="20.1" customHeight="1"/>
-    <row r="43" ht="20.1" customHeight="1"/>
-    <row r="44" ht="20.1" customHeight="1"/>
-    <row r="45" ht="20.1" customHeight="1"/>
-    <row r="46" ht="20.1" customHeight="1"/>
-    <row r="47" ht="20.1" customHeight="1"/>
-    <row r="48" ht="20.1" customHeight="1"/>
-    <row r="49" ht="20.1" customHeight="1"/>
-    <row r="50" ht="20.1" customHeight="1"/>
-    <row r="51" ht="20.1" customHeight="1"/>
+    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C6C928-9022-495A-B1DD-8CC7140B8354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A001D2-A49B-4CDB-B914-B635AA96C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1268,7 +1268,7 @@
   <dimension ref="C3:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A001D2-A49B-4CDB-B914-B635AA96C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7653DCC5-FA7E-4A08-A4DA-56FEE51F2588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7653DCC5-FA7E-4A08-A4DA-56FEE51F2588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09140549-A204-45B3-83A7-4074D7AACBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30825" yWindow="1290" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="210">
   <si>
     <t>Id</t>
   </si>
@@ -677,6 +677,36 @@
   </si>
   <si>
     <t>10001,1004;10002,1009;10003,1010;10004,1005</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiaowai_3</t>
+  </si>
+  <si>
+    <t>dixiacheng_1</t>
+  </si>
+  <si>
+    <t>jiaowai_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongku_2</t>
+  </si>
+  <si>
+    <t>shamo_1</t>
+  </si>
+  <si>
+    <t>jiaowai_1</t>
+  </si>
+  <si>
+    <t>jiaowai_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongku_1</t>
+  </si>
+  <si>
+    <t>dongku_2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1268,7 +1298,7 @@
   <dimension ref="C3:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1434,7 +1464,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -1479,7 +1509,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="F7" s="10">
         <v>3</v>
@@ -1524,7 +1554,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7">
         <v>5</v>
@@ -1569,7 +1599,7 @@
         <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="F9" s="7">
         <v>6</v>
@@ -1614,7 +1644,7 @@
         <v>59</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7">
         <v>6</v>
@@ -1659,7 +1689,7 @@
         <v>63</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7">
         <v>12</v>
@@ -1704,7 +1734,7 @@
         <v>68</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7">
         <v>8</v>
@@ -1749,7 +1779,7 @@
         <v>74</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7">
         <v>8</v>
@@ -1794,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="F14" s="9">
         <v>18</v>
@@ -1839,7 +1869,7 @@
         <v>87</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="F15" s="9">
         <v>21</v>
@@ -1884,7 +1914,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="F16" s="9">
         <v>24</v>
@@ -1929,7 +1959,7 @@
         <v>99</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F17" s="9">
         <v>26</v>
@@ -1974,7 +2004,7 @@
         <v>105</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F18" s="9">
         <v>28</v>
@@ -2015,7 +2045,7 @@
         <v>108</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F19" s="9">
         <v>30</v>
@@ -2058,7 +2088,7 @@
         <v>112</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F20" s="9">
         <v>30</v>
@@ -2099,7 +2129,7 @@
         <v>116</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F21" s="9">
         <v>32</v>
@@ -2142,7 +2172,7 @@
         <v>120</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="F22" s="9">
         <v>34</v>
@@ -2185,7 +2215,7 @@
         <v>126</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="F23" s="9">
         <v>36</v>
@@ -2228,7 +2258,7 @@
         <v>131</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="F24" s="9">
         <v>38</v>
@@ -2271,7 +2301,7 @@
         <v>135</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F25" s="9">
         <v>40</v>
@@ -2314,7 +2344,7 @@
         <v>141</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F26" s="9">
         <v>40</v>
@@ -2355,7 +2385,7 @@
         <v>145</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F27" s="9">
         <v>42</v>
@@ -2398,7 +2428,7 @@
         <v>150</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="F28" s="9">
         <v>44</v>
@@ -2441,7 +2471,7 @@
         <v>155</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="F29" s="9">
         <v>44</v>
@@ -2568,7 +2598,7 @@
         <v>167</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="F32" s="9">
         <v>50</v>
@@ -2611,7 +2641,7 @@
         <v>171</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="F33" s="9">
         <v>52</v>
@@ -2654,7 +2684,7 @@
         <v>177</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="F34" s="9">
         <v>52</v>
@@ -2695,7 +2725,7 @@
         <v>181</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="F35" s="9">
         <v>54</v>
@@ -2738,7 +2768,7 @@
         <v>186</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="F36" s="9">
         <v>54</v>
@@ -2779,7 +2809,7 @@
         <v>190</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="F37" s="9">
         <v>54</v>
@@ -2820,7 +2850,7 @@
         <v>194</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="F38" s="9">
         <v>56</v>
@@ -2861,7 +2891,7 @@
         <v>197</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="F39" s="9">
         <v>60</v>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09140549-A204-45B3-83A7-4074D7AACBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE9863-2B19-4104-8B18-1FB54F97DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30825" yWindow="1290" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="213">
   <si>
     <t>Id</t>
   </si>
@@ -707,6 +707,18 @@
   </si>
   <si>
     <t>dongku_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧空营地</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>24857,1050,-12673</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>240,120,-70,0,80</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1297,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2922,7 +2934,45 @@
         <v>61001</v>
       </c>
     </row>
-    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="6">
+        <v>60002</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="9">
+        <v>61</v>
+      </c>
+      <c r="G40" s="9">
+        <v>70002940</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="6">
+        <v>60002</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6">
+        <v>62001</v>
+      </c>
+    </row>
     <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE9863-2B19-4104-8B18-1FB54F97DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47160180-5C93-4D08-8740-D6498D4E7F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="219">
   <si>
     <t>Id</t>
   </si>
@@ -653,9 +653,6 @@
   </si>
   <si>
     <t>228.8,254.1,0,0,165</t>
-  </si>
-  <si>
-    <t>5007,5015</t>
   </si>
   <si>
     <t>黑暗之心</t>
@@ -719,6 +716,34 @@
   </si>
   <si>
     <t>240,120,-70,0,80</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5007,5015</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘之门1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘之门2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘之门3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘之门4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘之门5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘之门6</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1309,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1476,7 +1501,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -1521,7 +1546,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="10">
         <v>3</v>
@@ -1566,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7">
         <v>5</v>
@@ -1611,7 +1636,7 @@
         <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9" s="7">
         <v>6</v>
@@ -1656,7 +1681,7 @@
         <v>59</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7">
         <v>6</v>
@@ -1680,7 +1705,7 @@
         <v>1011</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N10" s="18" t="s">
         <v>62</v>
@@ -1701,7 +1726,7 @@
         <v>63</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7">
         <v>12</v>
@@ -1746,7 +1771,7 @@
         <v>68</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F12" s="7">
         <v>8</v>
@@ -1791,7 +1816,7 @@
         <v>74</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7">
         <v>8</v>
@@ -1836,7 +1861,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="9">
         <v>18</v>
@@ -1881,7 +1906,7 @@
         <v>87</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F15" s="9">
         <v>21</v>
@@ -1926,7 +1951,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="9">
         <v>24</v>
@@ -1971,7 +1996,7 @@
         <v>99</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F17" s="9">
         <v>26</v>
@@ -2016,7 +2041,7 @@
         <v>105</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="9">
         <v>28</v>
@@ -2057,7 +2082,7 @@
         <v>108</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F19" s="9">
         <v>30</v>
@@ -2100,7 +2125,7 @@
         <v>112</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" s="9">
         <v>30</v>
@@ -2141,7 +2166,7 @@
         <v>116</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F21" s="9">
         <v>32</v>
@@ -2184,7 +2209,7 @@
         <v>120</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F22" s="9">
         <v>34</v>
@@ -2227,7 +2252,7 @@
         <v>126</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F23" s="9">
         <v>36</v>
@@ -2270,7 +2295,7 @@
         <v>131</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F24" s="9">
         <v>38</v>
@@ -2313,7 +2338,7 @@
         <v>135</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F25" s="9">
         <v>40</v>
@@ -2356,7 +2381,7 @@
         <v>141</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F26" s="9">
         <v>40</v>
@@ -2397,7 +2422,7 @@
         <v>145</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F27" s="9">
         <v>42</v>
@@ -2440,7 +2465,7 @@
         <v>150</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F28" s="9">
         <v>44</v>
@@ -2483,7 +2508,7 @@
         <v>155</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F29" s="9">
         <v>44</v>
@@ -2610,7 +2635,7 @@
         <v>167</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F32" s="9">
         <v>50</v>
@@ -2653,7 +2678,7 @@
         <v>171</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F33" s="9">
         <v>52</v>
@@ -2696,7 +2721,7 @@
         <v>177</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F34" s="9">
         <v>52</v>
@@ -2737,7 +2762,7 @@
         <v>181</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="9">
         <v>54</v>
@@ -2780,7 +2805,7 @@
         <v>186</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F36" s="9">
         <v>54</v>
@@ -2821,7 +2846,7 @@
         <v>190</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F37" s="9">
         <v>54</v>
@@ -2842,7 +2867,7 @@
         <v>192</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M37" s="12"/>
       <c r="N37" s="13"/>
@@ -2859,10 +2884,10 @@
         <v>50007</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F38" s="9">
         <v>56</v>
@@ -2877,10 +2902,10 @@
         <v>50007</v>
       </c>
       <c r="J38" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="L38" s="9">
         <v>5016</v>
@@ -2900,10 +2925,10 @@
         <v>60001</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F39" s="9">
         <v>60</v>
@@ -2918,10 +2943,10 @@
         <v>60001</v>
       </c>
       <c r="J39" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="12"/>
@@ -2939,10 +2964,10 @@
         <v>60002</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F40" s="9">
         <v>61</v>
@@ -2957,10 +2982,10 @@
         <v>60002</v>
       </c>
       <c r="J40" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="12"/>
@@ -2973,12 +2998,240 @@
         <v>62001</v>
       </c>
     </row>
-    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="6">
+        <v>1000001</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <v>70002940</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="6">
+        <v>60002</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6">
+        <v>62001</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="6">
+        <v>1000002</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
+        <v>70002940</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="6">
+        <v>60002</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6">
+        <v>62001</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="6">
+        <v>1000003</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9">
+        <v>70002940</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="6">
+        <v>60002</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6">
+        <v>62001</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="6">
+        <v>1000004</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
+        <v>70002940</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="6">
+        <v>60002</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6">
+        <v>62001</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="6">
+        <v>1000005</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9">
+        <v>70002940</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="6">
+        <v>60002</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6">
+        <v>62001</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="6">
+        <v>1000006</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
+        <v>70002940</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="6">
+        <v>60002</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6">
+        <v>62001</v>
+      </c>
+    </row>
     <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47160180-5C93-4D08-8740-D6498D4E7F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98411E79-C7E9-47C3-B4D8-F15B0B5EC942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30405" yWindow="720" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
   <si>
     <t>Id</t>
   </si>
@@ -723,27 +723,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>神秘之门1</t>
+    <t>神秘之门</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>神秘之门2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘之门3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘之门4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘之门5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘之门6</t>
+    <t>0,0,729</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1334,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3000,7 +2984,7 @@
     </row>
     <row r="41" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="6">
-        <v>1000001</v>
+        <v>100101</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>213</v>
@@ -3012,16 +2996,16 @@
         <v>1</v>
       </c>
       <c r="G41" s="9">
-        <v>70002940</v>
+        <v>0</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="6">
-        <v>60002</v>
+        <v>2000004</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K41" s="9" t="s">
         <v>211</v>
@@ -3039,28 +3023,28 @@
     </row>
     <row r="42" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
-        <v>1000002</v>
+        <v>100201</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>202</v>
       </c>
       <c r="F42" s="9">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G42" s="9">
-        <v>70002940</v>
+        <v>0</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I42" s="6">
-        <v>60002</v>
+        <v>2000004</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>211</v>
@@ -3078,28 +3062,28 @@
     </row>
     <row r="43" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
-        <v>1000003</v>
+        <v>100301</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>202</v>
       </c>
       <c r="F43" s="9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G43" s="9">
-        <v>70002940</v>
+        <v>0</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="6">
-        <v>60002</v>
+        <v>2000004</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>211</v>
@@ -3117,28 +3101,28 @@
     </row>
     <row r="44" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
-        <v>1000004</v>
+        <v>100401</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>202</v>
       </c>
       <c r="F44" s="9">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G44" s="9">
-        <v>70002940</v>
+        <v>0</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I44" s="6">
-        <v>60002</v>
+        <v>2000004</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>211</v>
@@ -3156,28 +3140,28 @@
     </row>
     <row r="45" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
-        <v>1000005</v>
+        <v>100501</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>202</v>
       </c>
       <c r="F45" s="9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G45" s="9">
-        <v>70002940</v>
+        <v>0</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I45" s="6">
-        <v>60002</v>
+        <v>2000004</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>211</v>
@@ -3195,28 +3179,28 @@
     </row>
     <row r="46" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
-        <v>1000006</v>
+        <v>100601</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>202</v>
       </c>
       <c r="F46" s="9">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G46" s="9">
-        <v>70002940</v>
+        <v>0</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I46" s="6">
-        <v>60002</v>
+        <v>2000004</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>211</v>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98411E79-C7E9-47C3-B4D8-F15B0B5EC942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074C12EF-0F18-40D3-84B3-91C7EE041120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="720" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,6 +59,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C865023D-FBB7-478B-9309-6C469B143875}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0:默认野外刷怪
+1:喜从天降模式-神秘之门进入</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -74,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="222">
   <si>
     <t>Id</t>
   </si>
@@ -729,13 +757,40 @@
   <si>
     <t>0,0,729</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人副本类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜从天降-神秘之门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,8 +850,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +894,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14990691854609822"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14957121494186223"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +985,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -966,13 +1042,63 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1016,12 +1142,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:G5" totalsRowShown="0">
-  <autoFilter ref="C4:G5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:H5" totalsRowShown="0">
+  <autoFilter ref="C4:H5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ChapterName"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Music"/>
+    <tableColumn id="6" xr3:uid="{F00E6764-AD8C-429D-A124-148C7791A5DF}" name="MapType" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EnterLv"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BossIcon"/>
   </tableColumns>
@@ -1316,27 +1443,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:Q51"/>
+  <dimension ref="C3:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="10" width="17.25" customWidth="1"/>
-    <col min="11" max="12" width="26.625" customWidth="1"/>
-    <col min="13" max="13" width="73.375" customWidth="1"/>
-    <col min="14" max="14" width="87" customWidth="1"/>
-    <col min="15" max="15" width="63.25" customWidth="1"/>
-    <col min="16" max="17" width="23.125" customWidth="1"/>
+    <col min="4" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="11" width="17.25" customWidth="1"/>
+    <col min="12" max="13" width="26.625" customWidth="1"/>
+    <col min="14" max="14" width="73.375" customWidth="1"/>
+    <col min="15" max="15" width="87" customWidth="1"/>
+    <col min="16" max="16" width="63.25" customWidth="1"/>
+    <col min="17" max="18" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1347,34 +1474,34 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>12</v>
@@ -1382,8 +1509,11 @@
       <c r="Q3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1393,44 +1523,47 @@
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1441,43 +1574,46 @@
         <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
@@ -1487,42 +1623,45 @@
       <c r="E6" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>70001910</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="6">
         <v>10001</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="N6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="O6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="P6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>10001</v>
       </c>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
@@ -1532,42 +1671,45 @@
       <c r="E7" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>70001920</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="I7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="6">
         <v>10002</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="N7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="O7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="P7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>10002</v>
       </c>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
@@ -1577,42 +1719,45 @@
       <c r="E8" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="7">
         <v>5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>70001930</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="6">
         <v>10003</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="9">
+      <c r="M8" s="9">
         <v>1010</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="N8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="O8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="P8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>10003</v>
       </c>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
@@ -1622,42 +1767,45 @@
       <c r="E9" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="7">
         <v>6</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>70001940</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="I9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="6">
         <v>10004</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="M9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="N9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="O9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="P9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <v>10004</v>
       </c>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
@@ -1667,42 +1815,45 @@
       <c r="E10" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="7">
         <v>6</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>70001950</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="6">
         <v>10005</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="9">
+      <c r="M10" s="9">
         <v>1011</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="N10" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="O10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="P10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>10005</v>
       </c>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
@@ -1712,42 +1863,45 @@
       <c r="E11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="7">
         <v>12</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>70001960</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="I11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="6">
         <v>10006</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="9">
+      <c r="M11" s="9">
         <v>1012</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="N11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="O11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="P11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <v>10006</v>
       </c>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
@@ -1757,42 +1911,45 @@
       <c r="E12" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="7">
         <v>8</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>70001970</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="6">
         <v>10007</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="M12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="O12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="P12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <v>10007</v>
       </c>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
@@ -1802,42 +1959,45 @@
       <c r="E13" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7">
         <v>8</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H13" s="9">
         <v>70002910</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="I13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="6">
         <v>10008</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="M13" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="N13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="O13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="P13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="6">
         <v>10008</v>
       </c>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>20001</v>
       </c>
@@ -1847,42 +2007,45 @@
       <c r="E14" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="9">
         <v>18</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H14" s="9">
         <v>70002920</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="I14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="6">
         <v>20001</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="K14" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="M14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="N14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="O14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="P14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <v>20001</v>
       </c>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>20002</v>
       </c>
@@ -1892,42 +2055,45 @@
       <c r="E15" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="9">
         <v>21</v>
       </c>
-      <c r="G15" s="9">
+      <c r="H15" s="9">
         <v>70002920</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="I15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="6">
         <v>20002</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="K15" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="M15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="O15" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="P15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="6">
         <v>20002</v>
       </c>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>20003</v>
       </c>
@@ -1937,42 +2103,45 @@
       <c r="E16" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="9">
         <v>24</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>70002930</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="I16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="6">
         <v>20003</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="K16" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="9">
+      <c r="M16" s="9">
         <v>2012</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="N16" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="O16" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="P16" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <v>20003</v>
       </c>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>20004</v>
       </c>
@@ -1982,42 +2151,45 @@
       <c r="E17" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="9">
         <v>26</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H17" s="9">
         <v>70002940</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="I17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="6">
         <v>20004</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="K17" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="L17" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="M17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="N17" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="O17" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="P17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="6">
         <v>20004</v>
       </c>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>20005</v>
       </c>
@@ -2027,38 +2199,41 @@
       <c r="E18" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="9">
         <v>28</v>
       </c>
-      <c r="G18" s="9">
+      <c r="H18" s="9">
         <v>70002950</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="I18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="6">
         <v>20005</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="K18" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="9">
+      <c r="M18" s="9">
         <v>2014</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="18" t="s">
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <v>20005</v>
       </c>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>30001</v>
       </c>
@@ -2068,40 +2243,43 @@
       <c r="E19" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="9">
         <v>30</v>
       </c>
-      <c r="G19" s="9">
+      <c r="H19" s="9">
         <v>70003910</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="I19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="6">
         <v>30001</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="K19" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="L19" s="9">
+      <c r="M19" s="9">
         <v>3002</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="12"/>
+      <c r="O19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="P19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <v>30001</v>
       </c>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>30002</v>
       </c>
@@ -2111,38 +2289,41 @@
       <c r="E20" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="9">
         <v>30</v>
       </c>
-      <c r="G20" s="9">
+      <c r="H20" s="9">
         <v>70003920</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="I20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="6">
         <v>30002</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="K20" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="M20" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="18" t="s">
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <v>30002</v>
       </c>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>30003</v>
       </c>
@@ -2152,40 +2333,43 @@
       <c r="E21" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" s="9">
         <v>32</v>
       </c>
-      <c r="G21" s="9">
+      <c r="H21" s="9">
         <v>70003930</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="I21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="6">
         <v>30003</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="K21" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="L21" s="9">
+      <c r="M21" s="9">
         <v>3012</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="12"/>
+      <c r="O21" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="P21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="6">
+      <c r="Q21" s="6">
         <v>30003</v>
       </c>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>30004</v>
       </c>
@@ -2195,40 +2379,43 @@
       <c r="E22" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" s="9">
         <v>34</v>
       </c>
-      <c r="G22" s="9">
+      <c r="H22" s="9">
         <v>70003940</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="6">
+      <c r="I22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="6">
         <v>30004</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="K22" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="M22" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="12"/>
+      <c r="O22" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="P22" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="6">
         <v>30004</v>
       </c>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>30005</v>
       </c>
@@ -2238,40 +2425,43 @@
       <c r="E23" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" s="9">
         <v>36</v>
       </c>
-      <c r="G23" s="9">
+      <c r="H23" s="9">
         <v>70003950</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="I23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="6">
         <v>30005</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="K23" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="M23" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="12"/>
+      <c r="O23" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="P23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="6">
+      <c r="Q23" s="6">
         <v>30005</v>
       </c>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>30006</v>
       </c>
@@ -2281,40 +2471,43 @@
       <c r="E24" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="9">
         <v>38</v>
       </c>
-      <c r="G24" s="9">
+      <c r="H24" s="9">
         <v>70003950</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="I24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="6">
         <v>30006</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="K24" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="L24" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="9">
+      <c r="M24" s="9">
         <v>3015</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="12"/>
+      <c r="O24" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="P24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="6">
+      <c r="Q24" s="6">
         <v>30006</v>
       </c>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>40001</v>
       </c>
@@ -2324,40 +2517,43 @@
       <c r="E25" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="9">
         <v>40</v>
       </c>
-      <c r="G25" s="9">
+      <c r="H25" s="9">
         <v>70004910</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="I25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="6">
         <v>40001</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="K25" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="M25" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="12"/>
+      <c r="O25" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="P25" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="6">
+      <c r="Q25" s="6">
         <v>40001</v>
       </c>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>40002</v>
       </c>
@@ -2367,38 +2563,41 @@
       <c r="E26" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="9">
         <v>40</v>
       </c>
-      <c r="G26" s="9">
+      <c r="H26" s="9">
         <v>70004920</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="I26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="6">
         <v>40002</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="K26" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="M26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="18" t="s">
+      <c r="N26" s="15"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="6">
+      <c r="Q26" s="6">
         <v>40002</v>
       </c>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>40003</v>
       </c>
@@ -2408,40 +2607,43 @@
       <c r="E27" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="9">
         <v>42</v>
       </c>
-      <c r="G27" s="9">
+      <c r="H27" s="9">
         <v>70004930</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="I27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="6">
         <v>40003</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="K27" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="M27" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="15"/>
+      <c r="O27" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O27" s="18" t="s">
+      <c r="P27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="6">
+      <c r="Q27" s="6">
         <v>40003</v>
       </c>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>40004</v>
       </c>
@@ -2451,40 +2653,43 @@
       <c r="E28" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="9">
         <v>44</v>
       </c>
-      <c r="G28" s="9">
+      <c r="H28" s="9">
         <v>70004940</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="6">
+      <c r="I28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="6">
         <v>40004</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="K28" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="L28" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="M28" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="15"/>
+      <c r="O28" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="O28" s="18" t="s">
+      <c r="P28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P28" s="6">
+      <c r="Q28" s="6">
         <v>40004</v>
       </c>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>40005</v>
       </c>
@@ -2494,38 +2699,41 @@
       <c r="E29" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="9">
         <v>44</v>
       </c>
-      <c r="G29" s="9">
+      <c r="H29" s="9">
         <v>70004950</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="6">
+      <c r="I29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="6">
         <v>40005</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="K29" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="L29" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="L29" s="9">
+      <c r="M29" s="9">
         <v>4014</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="18" t="s">
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P29" s="6">
+      <c r="Q29" s="6">
         <v>40005</v>
       </c>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>40006</v>
       </c>
@@ -2535,40 +2743,43 @@
       <c r="E30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="9">
         <v>46</v>
       </c>
-      <c r="G30" s="9">
+      <c r="H30" s="9">
         <v>70004950</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="I30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="6">
         <v>40006</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="K30" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="L30" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="M30" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="18" t="s">
+      <c r="N30" s="12"/>
+      <c r="O30" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="O30" s="18" t="s">
+      <c r="P30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P30" s="6">
+      <c r="Q30" s="6">
         <v>40006</v>
       </c>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>40007</v>
       </c>
@@ -2578,40 +2789,43 @@
       <c r="E31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="9">
         <v>48</v>
       </c>
-      <c r="G31" s="9">
+      <c r="H31" s="9">
         <v>70004950</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="6">
+      <c r="I31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="6">
         <v>40007</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="K31" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="L31" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L31" s="9">
+      <c r="M31" s="9">
         <v>4015</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="18" t="s">
+      <c r="N31" s="12"/>
+      <c r="O31" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="P31" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P31" s="6">
+      <c r="Q31" s="6">
         <v>40007</v>
       </c>
-      <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>50001</v>
       </c>
@@ -2621,40 +2835,43 @@
       <c r="E32" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="9">
         <v>50</v>
       </c>
-      <c r="G32" s="9">
+      <c r="H32" s="9">
         <v>70002940</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="I32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="6">
         <v>50001</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="K32" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="L32" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="L32" s="9">
+      <c r="M32" s="9">
         <v>5002</v>
       </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="12"/>
+      <c r="O32" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="O32" s="18" t="s">
+      <c r="P32" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P32" s="6">
+      <c r="Q32" s="6">
         <v>50001</v>
       </c>
-      <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>50002</v>
       </c>
@@ -2664,40 +2881,43 @@
       <c r="E33" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="9">
         <v>52</v>
       </c>
-      <c r="G33" s="9">
+      <c r="H33" s="9">
         <v>70002950</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="6">
+      <c r="I33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="6">
         <v>50002</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="K33" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="L33" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="M33" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="12"/>
+      <c r="O33" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="O33" s="18" t="s">
+      <c r="P33" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="P33" s="6">
+      <c r="Q33" s="6">
         <v>50002</v>
       </c>
-      <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>50003</v>
       </c>
@@ -2707,38 +2927,41 @@
       <c r="E34" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="9">
         <v>52</v>
       </c>
-      <c r="G34" s="9">
+      <c r="H34" s="9">
         <v>70001910</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="I34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="6">
         <v>50003</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="K34" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="M34" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="18" t="s">
+      <c r="N34" s="12"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P34" s="6">
+      <c r="Q34" s="6">
         <v>50003</v>
       </c>
-      <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>50004</v>
       </c>
@@ -2748,40 +2971,43 @@
       <c r="E35" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" s="9">
         <v>54</v>
       </c>
-      <c r="G35" s="9">
+      <c r="H35" s="9">
         <v>70001920</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="6">
+      <c r="I35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="6">
         <v>50004</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="K35" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="M35" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="18" t="s">
+      <c r="N35" s="12"/>
+      <c r="O35" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="O35" s="18" t="s">
+      <c r="P35" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P35" s="6">
+      <c r="Q35" s="6">
         <v>50004</v>
       </c>
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="3:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>50005</v>
       </c>
@@ -2791,38 +3017,41 @@
       <c r="E36" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" s="9">
         <v>54</v>
       </c>
-      <c r="G36" s="9">
+      <c r="H36" s="9">
         <v>70001930</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="6">
+      <c r="I36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="6">
         <v>50005</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="K36" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="L36" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="M36" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="18" t="s">
+      <c r="N36" s="12"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P36" s="6">
+      <c r="Q36" s="6">
         <v>50005</v>
       </c>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>50006</v>
       </c>
@@ -2832,38 +3061,41 @@
       <c r="E37" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="9">
         <v>54</v>
       </c>
-      <c r="G37" s="9">
+      <c r="H37" s="9">
         <v>70001930</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="6">
+      <c r="I37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="6">
         <v>50006</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="K37" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="L37" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="M37" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="M37" s="12"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="18" t="s">
+      <c r="N37" s="12"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P37" s="6">
+      <c r="Q37" s="6">
         <v>50006</v>
       </c>
-      <c r="Q37" s="6"/>
-    </row>
-    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>50007</v>
       </c>
@@ -2873,38 +3105,41 @@
       <c r="E38" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="9">
         <v>56</v>
       </c>
-      <c r="G38" s="9">
+      <c r="H38" s="9">
         <v>70001930</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="6">
+      <c r="I38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="6">
         <v>50007</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="K38" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="L38" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="L38" s="9">
+      <c r="M38" s="9">
         <v>5016</v>
       </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="18" t="s">
+      <c r="N38" s="12"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="6">
+      <c r="Q38" s="6">
         <v>50007</v>
       </c>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
         <v>60001</v>
       </c>
@@ -2914,36 +3149,39 @@
       <c r="E39" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="9">
         <v>60</v>
       </c>
-      <c r="G39" s="9">
+      <c r="H39" s="9">
         <v>70002940</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="6">
+      <c r="I39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="6">
         <v>60001</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="K39" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="L39" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="18" t="s">
+      <c r="M39" s="9"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6">
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6">
         <v>61001</v>
       </c>
     </row>
-    <row r="40" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="6">
         <v>60002</v>
       </c>
@@ -2953,77 +3191,83 @@
       <c r="E40" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="9">
         <v>61</v>
       </c>
-      <c r="G40" s="9">
+      <c r="H40" s="9">
         <v>70002940</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="6">
+      <c r="I40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="6">
         <v>60002</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="K40" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="L40" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="18" t="s">
+      <c r="M40" s="9"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6">
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6">
         <v>62001</v>
       </c>
     </row>
-    <row r="41" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="6">
-        <v>100101</v>
+        <v>100001</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="9">
         <v>1</v>
       </c>
-      <c r="G41" s="9">
+      <c r="H41" s="9">
         <v>0</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="6">
-        <v>2000004</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="K41" s="9" t="s">
+      <c r="I41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="21">
+        <v>2000010</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L41" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="18" t="s">
+      <c r="M41" s="9"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6">
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6">
         <v>62001</v>
       </c>
     </row>
-    <row r="42" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
-        <v>100201</v>
+        <v>100101</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>213</v>
@@ -3031,38 +3275,41 @@
       <c r="E42" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F42" s="9">
-        <v>18</v>
+      <c r="F42" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="6">
+      <c r="I42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="6">
         <v>2000004</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="K42" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="L42" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="18" t="s">
+      <c r="M42" s="9"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6">
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6">
         <v>62001</v>
       </c>
     </row>
-    <row r="43" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
-        <v>100301</v>
+        <v>100201</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>213</v>
@@ -3070,38 +3317,41 @@
       <c r="E43" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="9">
-        <v>30</v>
+      <c r="F43" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="G43" s="9">
+        <v>18</v>
+      </c>
+      <c r="H43" s="9">
         <v>0</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="6">
+      <c r="I43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="6">
         <v>2000004</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="K43" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="L43" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="18" t="s">
+      <c r="M43" s="9"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6">
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6">
         <v>62001</v>
       </c>
     </row>
-    <row r="44" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
-        <v>100401</v>
+        <v>100301</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>213</v>
@@ -3109,38 +3359,41 @@
       <c r="E44" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F44" s="9">
-        <v>40</v>
+      <c r="F44" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="G44" s="9">
+        <v>30</v>
+      </c>
+      <c r="H44" s="9">
         <v>0</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="I44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="6">
         <v>2000004</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="K44" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="L44" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="L44" s="9"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="18" t="s">
+      <c r="M44" s="9"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6">
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6">
         <v>62001</v>
       </c>
     </row>
-    <row r="45" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
-        <v>100501</v>
+        <v>100401</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>213</v>
@@ -3148,38 +3401,41 @@
       <c r="E45" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F45" s="9">
-        <v>50</v>
+      <c r="F45" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="G45" s="9">
+        <v>40</v>
+      </c>
+      <c r="H45" s="9">
         <v>0</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" s="6">
+      <c r="I45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="6">
         <v>2000004</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="K45" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="L45" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="18" t="s">
+      <c r="M45" s="9"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6">
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6">
         <v>62001</v>
       </c>
     </row>
-    <row r="46" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
-        <v>100601</v>
+        <v>100501</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>213</v>
@@ -3187,40 +3443,85 @@
       <c r="E46" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G46" s="9">
+        <v>50</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2000004</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6">
+        <v>62001</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="6">
+        <v>100601</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="9">
         <v>60</v>
       </c>
-      <c r="G46" s="9">
+      <c r="H47" s="9">
         <v>0</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="I47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="6">
         <v>2000004</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="K47" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="L47" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="18" t="s">
+      <c r="M47" s="9"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6">
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6">
         <v>62001</v>
       </c>
     </row>
-    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074C12EF-0F18-40D3-84B3-91C7EE041120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BB8BD7-C62A-4165-9796-9D81C287431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -779,11 +779,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>喜从天降-神秘之门</t>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>神秘之门-喜</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3228,7 +3228,7 @@
         <v>100001</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>202</v>
@@ -3249,7 +3249,7 @@
         <v>2000010</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>211</v>
@@ -3261,9 +3261,7 @@
         <v>39</v>
       </c>
       <c r="Q41" s="6"/>
-      <c r="R41" s="6">
-        <v>62001</v>
-      </c>
+      <c r="R41" s="6"/>
     </row>
     <row r="42" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
@@ -3304,7 +3302,7 @@
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6">
-        <v>62001</v>
+        <v>10010101</v>
       </c>
     </row>
     <row r="43" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3346,7 +3344,7 @@
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6">
-        <v>62001</v>
+        <v>10020101</v>
       </c>
     </row>
     <row r="44" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3388,7 +3386,7 @@
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6">
-        <v>62001</v>
+        <v>10030101</v>
       </c>
     </row>
     <row r="45" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3430,7 +3428,7 @@
       </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6">
-        <v>62001</v>
+        <v>10040101</v>
       </c>
     </row>
     <row r="46" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3472,7 +3470,7 @@
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6">
-        <v>62001</v>
+        <v>10050101</v>
       </c>
     </row>
     <row r="47" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3514,7 +3512,7 @@
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6">
-        <v>62001</v>
+        <v>10060101</v>
       </c>
     </row>
     <row r="48" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BB8BD7-C62A-4165-9796-9D81C287431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081F24F6-8BA7-485E-855C-CB675A5DC1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="224">
   <si>
     <t>Id</t>
   </si>
@@ -783,6 +783,14 @@
   </si>
   <si>
     <t>神秘之门-喜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应章节</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterId</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1443,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:R52"/>
+  <dimension ref="C3:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1460,10 +1468,10 @@
     <col min="14" max="14" width="73.375" customWidth="1"/>
     <col min="15" max="15" width="87" customWidth="1"/>
     <col min="16" max="16" width="63.25" customWidth="1"/>
-    <col min="17" max="18" width="23.125" customWidth="1"/>
+    <col min="17" max="19" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1512,8 +1520,11 @@
       <c r="R3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1562,8 +1573,11 @@
       <c r="R4" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S4" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1612,8 +1626,11 @@
       <c r="R5" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>10001</v>
       </c>
@@ -1660,8 +1677,9 @@
         <v>10001</v>
       </c>
       <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>10002</v>
       </c>
@@ -1708,8 +1726,9 @@
         <v>10002</v>
       </c>
       <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>10003</v>
       </c>
@@ -1756,8 +1775,9 @@
         <v>10003</v>
       </c>
       <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>10004</v>
       </c>
@@ -1804,8 +1824,9 @@
         <v>10004</v>
       </c>
       <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>10005</v>
       </c>
@@ -1852,8 +1873,9 @@
         <v>10005</v>
       </c>
       <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>10006</v>
       </c>
@@ -1900,8 +1922,9 @@
         <v>10006</v>
       </c>
       <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>10007</v>
       </c>
@@ -1948,8 +1971,9 @@
         <v>10007</v>
       </c>
       <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>10008</v>
       </c>
@@ -1996,8 +2020,9 @@
         <v>10008</v>
       </c>
       <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>20001</v>
       </c>
@@ -2044,8 +2069,9 @@
         <v>20001</v>
       </c>
       <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>20002</v>
       </c>
@@ -2092,8 +2118,9 @@
         <v>20002</v>
       </c>
       <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>20003</v>
       </c>
@@ -2140,8 +2167,9 @@
         <v>20003</v>
       </c>
       <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>20004</v>
       </c>
@@ -2188,8 +2216,9 @@
         <v>20004</v>
       </c>
       <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>20005</v>
       </c>
@@ -2232,8 +2261,9 @@
         <v>20005</v>
       </c>
       <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>30001</v>
       </c>
@@ -2278,8 +2308,9 @@
         <v>30001</v>
       </c>
       <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>30002</v>
       </c>
@@ -2322,8 +2353,9 @@
         <v>30002</v>
       </c>
       <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>30003</v>
       </c>
@@ -2368,8 +2400,9 @@
         <v>30003</v>
       </c>
       <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>30004</v>
       </c>
@@ -2414,8 +2447,9 @@
         <v>30004</v>
       </c>
       <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>30005</v>
       </c>
@@ -2460,8 +2494,9 @@
         <v>30005</v>
       </c>
       <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>30006</v>
       </c>
@@ -2506,8 +2541,9 @@
         <v>30006</v>
       </c>
       <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>40001</v>
       </c>
@@ -2552,8 +2588,9 @@
         <v>40001</v>
       </c>
       <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>40002</v>
       </c>
@@ -2596,8 +2633,9 @@
         <v>40002</v>
       </c>
       <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>40003</v>
       </c>
@@ -2642,8 +2680,9 @@
         <v>40003</v>
       </c>
       <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>40004</v>
       </c>
@@ -2688,8 +2727,9 @@
         <v>40004</v>
       </c>
       <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>40005</v>
       </c>
@@ -2732,8 +2772,9 @@
         <v>40005</v>
       </c>
       <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>40006</v>
       </c>
@@ -2778,8 +2819,9 @@
         <v>40006</v>
       </c>
       <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>40007</v>
       </c>
@@ -2824,8 +2866,9 @@
         <v>40007</v>
       </c>
       <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>50001</v>
       </c>
@@ -2870,8 +2913,9 @@
         <v>50001</v>
       </c>
       <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>50002</v>
       </c>
@@ -2916,8 +2960,9 @@
         <v>50002</v>
       </c>
       <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>50003</v>
       </c>
@@ -2960,8 +3005,9 @@
         <v>50003</v>
       </c>
       <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>50004</v>
       </c>
@@ -3006,8 +3052,9 @@
         <v>50004</v>
       </c>
       <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>50005</v>
       </c>
@@ -3050,8 +3097,9 @@
         <v>50005</v>
       </c>
       <c r="R36" s="6"/>
-    </row>
-    <row r="37" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>50006</v>
       </c>
@@ -3094,8 +3142,9 @@
         <v>50006</v>
       </c>
       <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
         <v>50007</v>
       </c>
@@ -3138,8 +3187,9 @@
         <v>50007</v>
       </c>
       <c r="R38" s="6"/>
-    </row>
-    <row r="39" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
         <v>60001</v>
       </c>
@@ -3180,8 +3230,11 @@
       <c r="R39" s="6">
         <v>61001</v>
       </c>
-    </row>
-    <row r="40" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S39" s="6">
+        <v>61001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="6">
         <v>60002</v>
       </c>
@@ -3222,8 +3275,11 @@
       <c r="R40" s="6">
         <v>62001</v>
       </c>
-    </row>
-    <row r="41" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S40" s="6">
+        <v>62001</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="6">
         <v>100001</v>
       </c>
@@ -3262,8 +3318,9 @@
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
-    </row>
-    <row r="42" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
         <v>100101</v>
       </c>
@@ -3304,8 +3361,11 @@
       <c r="R42" s="6">
         <v>10010101</v>
       </c>
-    </row>
-    <row r="43" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S42" s="6">
+        <v>10010101</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
         <v>100201</v>
       </c>
@@ -3346,8 +3406,11 @@
       <c r="R43" s="6">
         <v>10020101</v>
       </c>
-    </row>
-    <row r="44" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S43" s="6">
+        <v>10020101</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
         <v>100301</v>
       </c>
@@ -3388,8 +3451,11 @@
       <c r="R44" s="6">
         <v>10030101</v>
       </c>
-    </row>
-    <row r="45" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S44" s="6">
+        <v>10030101</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
         <v>100401</v>
       </c>
@@ -3430,8 +3496,11 @@
       <c r="R45" s="6">
         <v>10040101</v>
       </c>
-    </row>
-    <row r="46" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S45" s="6">
+        <v>10040101</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
         <v>100501</v>
       </c>
@@ -3472,8 +3541,11 @@
       <c r="R46" s="6">
         <v>10050101</v>
       </c>
-    </row>
-    <row r="47" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S46" s="6">
+        <v>10050101</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6">
         <v>100601</v>
       </c>
@@ -3514,8 +3586,11 @@
       <c r="R47" s="6">
         <v>10060101</v>
       </c>
-    </row>
-    <row r="48" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="S47" s="6">
+        <v>10060101</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081F24F6-8BA7-485E-855C-CB675A5DC1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF0A319-936A-42E8-BEF1-8BA42D04E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41:S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1677,7 +1677,9 @@
         <v>10001</v>
       </c>
       <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="S6" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
@@ -1726,7 +1728,9 @@
         <v>10002</v>
       </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
@@ -1775,7 +1779,9 @@
         <v>10003</v>
       </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="S8" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
@@ -1824,7 +1830,9 @@
         <v>10004</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="S9" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
@@ -1873,7 +1881,9 @@
         <v>10005</v>
       </c>
       <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
@@ -1922,7 +1932,9 @@
         <v>10006</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="S11" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
@@ -1971,7 +1983,9 @@
         <v>10007</v>
       </c>
       <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="S12" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
@@ -2020,7 +2034,9 @@
         <v>10008</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
@@ -2069,7 +2085,9 @@
         <v>20001</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="S14" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
@@ -2118,7 +2136,9 @@
         <v>20002</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+      <c r="S15" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
@@ -2167,7 +2187,9 @@
         <v>20003</v>
       </c>
       <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="S16" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
@@ -2216,7 +2238,9 @@
         <v>20004</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="S17" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
@@ -2261,7 +2285,9 @@
         <v>20005</v>
       </c>
       <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="S18" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
@@ -2308,7 +2334,9 @@
         <v>30001</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="S19" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
@@ -2353,7 +2381,9 @@
         <v>30002</v>
       </c>
       <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
+      <c r="S20" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
@@ -2400,7 +2430,9 @@
         <v>30003</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
+      <c r="S21" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
@@ -2447,7 +2479,9 @@
         <v>30004</v>
       </c>
       <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
+      <c r="S22" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
@@ -2494,7 +2528,9 @@
         <v>30005</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
+      <c r="S23" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
@@ -2541,7 +2577,9 @@
         <v>30006</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
+      <c r="S24" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
@@ -2588,7 +2626,9 @@
         <v>40001</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="S25" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
@@ -2633,7 +2673,9 @@
         <v>40002</v>
       </c>
       <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
+      <c r="S26" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
@@ -2680,7 +2722,9 @@
         <v>40003</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
+      <c r="S27" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
@@ -2727,7 +2771,9 @@
         <v>40004</v>
       </c>
       <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
+      <c r="S28" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
@@ -2772,7 +2818,9 @@
         <v>40005</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
+      <c r="S29" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
@@ -2819,7 +2867,9 @@
         <v>40006</v>
       </c>
       <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
+      <c r="S30" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
@@ -2866,7 +2916,9 @@
         <v>40007</v>
       </c>
       <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
+      <c r="S31" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
@@ -2913,7 +2965,9 @@
         <v>50001</v>
       </c>
       <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
+      <c r="S32" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
@@ -2960,7 +3014,9 @@
         <v>50002</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
+      <c r="S33" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
@@ -3005,7 +3061,9 @@
         <v>50003</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
+      <c r="S34" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
@@ -3052,7 +3110,9 @@
         <v>50004</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
+      <c r="S35" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="3:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
@@ -3097,7 +3157,9 @@
         <v>50005</v>
       </c>
       <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
+      <c r="S36" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
@@ -3142,7 +3204,9 @@
         <v>50006</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
+      <c r="S37" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="6">
@@ -3187,7 +3251,9 @@
         <v>50007</v>
       </c>
       <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
+      <c r="S38" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
@@ -3231,7 +3297,7 @@
         <v>61001</v>
       </c>
       <c r="S39" s="6">
-        <v>61001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3276,7 +3342,7 @@
         <v>62001</v>
       </c>
       <c r="S40" s="6">
-        <v>62001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3361,9 +3427,7 @@
       <c r="R42" s="6">
         <v>10010101</v>
       </c>
-      <c r="S42" s="6">
-        <v>10010101</v>
-      </c>
+      <c r="S42" s="6"/>
     </row>
     <row r="43" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
@@ -3406,9 +3470,7 @@
       <c r="R43" s="6">
         <v>10020101</v>
       </c>
-      <c r="S43" s="6">
-        <v>10020101</v>
-      </c>
+      <c r="S43" s="6"/>
     </row>
     <row r="44" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
@@ -3451,9 +3513,7 @@
       <c r="R44" s="6">
         <v>10030101</v>
       </c>
-      <c r="S44" s="6">
-        <v>10030101</v>
-      </c>
+      <c r="S44" s="6"/>
     </row>
     <row r="45" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
@@ -3496,9 +3556,7 @@
       <c r="R45" s="6">
         <v>10040101</v>
       </c>
-      <c r="S45" s="6">
-        <v>10040101</v>
-      </c>
+      <c r="S45" s="6"/>
     </row>
     <row r="46" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
@@ -3541,9 +3599,7 @@
       <c r="R46" s="6">
         <v>10050101</v>
       </c>
-      <c r="S46" s="6">
-        <v>10050101</v>
-      </c>
+      <c r="S46" s="6"/>
     </row>
     <row r="47" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6">
@@ -3586,9 +3642,7 @@
       <c r="R47" s="6">
         <v>10060101</v>
       </c>
-      <c r="S47" s="6">
-        <v>10060101</v>
-      </c>
+      <c r="S47" s="6"/>
     </row>
     <row r="48" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF0A319-936A-42E8-BEF1-8BA42D04E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD22A06-FF71-42A1-881A-620B267B7989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41:S47"/>
+    <sheetView tabSelected="1" topLeftCell="O16" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD22A06-FF71-42A1-881A-620B267B7989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0175D2-118B-403B-B7C8-B13E5B42C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O16" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2052,7 +2052,7 @@
         <v>218</v>
       </c>
       <c r="G14" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H14" s="9">
         <v>70002920</v>
@@ -2103,7 +2103,7 @@
         <v>218</v>
       </c>
       <c r="G15" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="9">
         <v>70002920</v>
@@ -2154,7 +2154,7 @@
         <v>218</v>
       </c>
       <c r="G16" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="9">
         <v>70002930</v>
@@ -2205,7 +2205,7 @@
         <v>218</v>
       </c>
       <c r="G17" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="9">
         <v>70002940</v>
@@ -2256,7 +2256,7 @@
         <v>218</v>
       </c>
       <c r="G18" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="9">
         <v>70002950</v>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0175D2-118B-403B-B7C8-B13E5B42C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E456C8-9007-4AFC-8054-70DD028CE1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="O22" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E456C8-9007-4AFC-8054-70DD028CE1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F05FDD4-F794-4754-9CFC-87D9008DA258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="227">
   <si>
     <t>Id</t>
   </si>
@@ -791,6 +791,18 @@
   </si>
   <si>
     <t>ChapterId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧空魔穴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>230,120,-70,0,70</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>17222,1050,-6613</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1451,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:S52"/>
+  <dimension ref="C3:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O22" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+      <selection activeCell="J39" sqref="A39:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3347,34 +3359,34 @@
     </row>
     <row r="41" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="6">
-        <v>100001</v>
+        <v>60003</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>219</v>
+      <c r="F41" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="G41" s="9">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="H41" s="9">
-        <v>0</v>
+        <v>70002940</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J41" s="21">
-        <v>2000010</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>220</v>
+      <c r="J41" s="6">
+        <v>60003</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="12"/>
@@ -3383,21 +3395,25 @@
         <v>39</v>
       </c>
       <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
+      <c r="R41" s="6">
+        <v>63001</v>
+      </c>
+      <c r="S41" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
-        <v>100101</v>
+        <v>100001</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>202</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
@@ -3408,11 +3424,11 @@
       <c r="I42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="6">
-        <v>2000004</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>214</v>
+      <c r="J42" s="21">
+        <v>2000010</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>211</v>
@@ -3424,14 +3440,12 @@
         <v>39</v>
       </c>
       <c r="Q42" s="6"/>
-      <c r="R42" s="6">
-        <v>10010101</v>
-      </c>
+      <c r="R42" s="6"/>
       <c r="S42" s="6"/>
     </row>
     <row r="43" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="6">
-        <v>100201</v>
+        <v>100101</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>213</v>
@@ -3443,7 +3457,7 @@
         <v>218</v>
       </c>
       <c r="G43" s="9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H43" s="9">
         <v>0</v>
@@ -3468,13 +3482,13 @@
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6">
-        <v>10020101</v>
+        <v>10010101</v>
       </c>
       <c r="S43" s="6"/>
     </row>
     <row r="44" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="6">
-        <v>100301</v>
+        <v>100201</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>213</v>
@@ -3486,7 +3500,7 @@
         <v>218</v>
       </c>
       <c r="G44" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H44" s="9">
         <v>0</v>
@@ -3511,13 +3525,13 @@
       </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6">
-        <v>10030101</v>
+        <v>10020101</v>
       </c>
       <c r="S44" s="6"/>
     </row>
     <row r="45" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6">
-        <v>100401</v>
+        <v>100301</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>213</v>
@@ -3529,7 +3543,7 @@
         <v>218</v>
       </c>
       <c r="G45" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H45" s="9">
         <v>0</v>
@@ -3554,13 +3568,13 @@
       </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6">
-        <v>10040101</v>
+        <v>10030101</v>
       </c>
       <c r="S45" s="6"/>
     </row>
     <row r="46" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
-        <v>100501</v>
+        <v>100401</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>213</v>
@@ -3572,7 +3586,7 @@
         <v>218</v>
       </c>
       <c r="G46" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H46" s="9">
         <v>0</v>
@@ -3597,13 +3611,13 @@
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6">
-        <v>10050101</v>
+        <v>10040101</v>
       </c>
       <c r="S46" s="6"/>
     </row>
     <row r="47" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6">
-        <v>100601</v>
+        <v>100501</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>213</v>
@@ -3615,7 +3629,7 @@
         <v>218</v>
       </c>
       <c r="G47" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H47" s="9">
         <v>0</v>
@@ -3640,15 +3654,58 @@
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6">
+        <v>10050101</v>
+      </c>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="6">
+        <v>100601</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="9">
+        <v>60</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="6">
+        <v>2000004</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6">
         <v>10060101</v>
       </c>
-      <c r="S47" s="6"/>
-    </row>
-    <row r="48" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="S48" s="6"/>
+    </row>
     <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F05FDD4-F794-4754-9CFC-87D9008DA258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CF915-6A3B-486D-B52A-FCB6DEB12C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="228">
   <si>
     <t>Id</t>
   </si>
@@ -803,6 +803,10 @@
   </si>
   <si>
     <t>17222,1050,-6613</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000004</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1465,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O22" workbookViewId="0">
-      <selection activeCell="J39" sqref="A39:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="K26" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3476,7 +3480,9 @@
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="13"/>
+      <c r="O43" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="P43" s="18" t="s">
         <v>39</v>
       </c>
@@ -3519,7 +3525,9 @@
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="12"/>
-      <c r="O44" s="13"/>
+      <c r="O44" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="P44" s="18" t="s">
         <v>39</v>
       </c>
@@ -3562,7 +3570,9 @@
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="12"/>
-      <c r="O45" s="13"/>
+      <c r="O45" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="P45" s="18" t="s">
         <v>39</v>
       </c>
@@ -3605,7 +3615,9 @@
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="12"/>
-      <c r="O46" s="13"/>
+      <c r="O46" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="P46" s="18" t="s">
         <v>39</v>
       </c>
@@ -3648,7 +3660,9 @@
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="12"/>
-      <c r="O47" s="13"/>
+      <c r="O47" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="P47" s="18" t="s">
         <v>39</v>
       </c>
@@ -3691,7 +3705,9 @@
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="12"/>
-      <c r="O48" s="13"/>
+      <c r="O48" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="P48" s="18" t="s">
         <v>39</v>
       </c>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CF915-6A3B-486D-B52A-FCB6DEB12C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69DC2FE-D0A2-419B-8C9C-C191A32E6D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K26" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3330,7 +3330,7 @@
         <v>218</v>
       </c>
       <c r="G40" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H40" s="9">
         <v>70002940</v>
@@ -3375,7 +3375,7 @@
         <v>218</v>
       </c>
       <c r="G41" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H41" s="9">
         <v>70002940</v>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69DC2FE-D0A2-419B-8C9C-C191A32E6D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14440CAB-F907-47EA-B511-70697BD8C983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="O25" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14440CAB-F907-47EA-B511-70697BD8C983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7FEB2C-B6E6-429F-B12F-3B65E28837A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonProto" sheetId="1" r:id="rId1"/>
@@ -359,9 +359,6 @@
     <t>20002,2011;20003,2012;20004,2013;2005,2014</t>
   </si>
   <si>
-    <t>20002001,20002002,20002003,20002007,20002008,20001009</t>
-  </si>
-  <si>
     <t>1;42.53,30.10,-38.74;41002001;1</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>188.2,103,-45,0,45</t>
   </si>
   <si>
-    <t>20003001,20003002,20003003</t>
-  </si>
-  <si>
     <t>冰封森林</t>
   </si>
   <si>
@@ -521,9 +515,6 @@
     <t>4006,4002</t>
   </si>
   <si>
-    <t>20004001,20004002,20004003</t>
-  </si>
-  <si>
     <t>1;180.01,29.02,37.73;41004001;1@1;154.49,29.02,-35.24;41004001;1@1;226.06,29.02,-39.41;41004001;1@1;149.38,29.02,29.36;41004001;1@1;174.34,29.02,-13.86;41004001;1@1;201.74,29.02,-26.80;41004001;1@1;160.08,29.02,17.66;41004001;1@1;153.55,29.02,-41.99;41004001;1@1;212.79,29.02,-51.39;41004001;1@1;223.69,29.02,-31.04;41004001;1@1;166.52,29.02,1.53;41004001;1@1;161.77,29.02,39.27;41004001;1@1;154.49,29.02,-19.94;41004001;1@1;149.13,29.02,17.66;41004001;1@1;193.50,29.02,-9.06;41004001;1@1;206.15,29.02,-12.49;41004001;1@1;218.82,29.02,-18.68;41004001;1</t>
   </si>
   <si>
@@ -612,9 +603,6 @@
   </si>
   <si>
     <t>15,120,-50,0,50</t>
-  </si>
-  <si>
-    <t>20005003,20005001,20005002</t>
   </si>
   <si>
     <t>诡异小径</t>
@@ -807,6 +795,22 @@
   </si>
   <si>
     <t>40000004</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002001,20002003,20002007,20002008,20001009</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003001,20003003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20004001,20004003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20005003,20005001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1469,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O25" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="L16" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1498,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -1537,7 +1541,7 @@
         <v>12</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1551,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
@@ -1590,7 +1594,7 @@
         <v>26</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1604,7 +1608,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>27</v>
@@ -1654,10 +1658,10 @@
         <v>31</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -1705,10 +1709,10 @@
         <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G7" s="10">
         <v>3</v>
@@ -1756,10 +1760,10 @@
         <v>47</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7">
         <v>5</v>
@@ -1807,10 +1811,10 @@
         <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G9" s="7">
         <v>6</v>
@@ -1858,10 +1862,10 @@
         <v>59</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7">
         <v>6</v>
@@ -1885,7 +1889,7 @@
         <v>1011</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>62</v>
@@ -1909,10 +1913,10 @@
         <v>63</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7">
         <v>12</v>
@@ -1960,10 +1964,10 @@
         <v>68</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G12" s="7">
         <v>8</v>
@@ -2011,10 +2015,10 @@
         <v>74</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7">
         <v>8</v>
@@ -2062,10 +2066,10 @@
         <v>80</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G14" s="9">
         <v>15</v>
@@ -2092,10 +2096,10 @@
         <v>84</v>
       </c>
       <c r="O14" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="P14" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="Q14" s="6">
         <v>20001</v>
@@ -2110,13 +2114,13 @@
         <v>20002</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G15" s="9">
         <v>20</v>
@@ -2131,19 +2135,19 @@
         <v>20002</v>
       </c>
       <c r="K15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="M15" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="N15" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="O15" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>39</v>
@@ -2161,13 +2165,13 @@
         <v>20003</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G16" s="9">
         <v>23</v>
@@ -2182,22 +2186,22 @@
         <v>20003</v>
       </c>
       <c r="K16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="9">
         <v>2012</v>
       </c>
       <c r="N16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="P16" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="Q16" s="6">
         <v>20003</v>
@@ -2212,13 +2216,13 @@
         <v>20004</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G17" s="9">
         <v>25</v>
@@ -2233,19 +2237,19 @@
         <v>20004</v>
       </c>
       <c r="K17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="M17" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="N17" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="O17" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="P17" s="18" t="s">
         <v>39</v>
@@ -2263,13 +2267,13 @@
         <v>20005</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G18" s="9">
         <v>27</v>
@@ -2284,10 +2288,10 @@
         <v>20005</v>
       </c>
       <c r="K18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="M18" s="9">
         <v>2014</v>
@@ -2310,13 +2314,13 @@
         <v>30001</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G19" s="9">
         <v>30</v>
@@ -2331,17 +2335,17 @@
         <v>30001</v>
       </c>
       <c r="K19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="9">
         <v>3002</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="18" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="P19" s="18" t="s">
         <v>39</v>
@@ -2359,13 +2363,13 @@
         <v>30002</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G20" s="9">
         <v>30</v>
@@ -2380,13 +2384,13 @@
         <v>30002</v>
       </c>
       <c r="K20" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
@@ -2406,13 +2410,13 @@
         <v>30003</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G21" s="9">
         <v>32</v>
@@ -2427,17 +2431,17 @@
         <v>30003</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M21" s="9">
         <v>3012</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P21" s="18" t="s">
         <v>39</v>
@@ -2455,13 +2459,13 @@
         <v>30004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G22" s="9">
         <v>34</v>
@@ -2476,20 +2480,20 @@
         <v>30004</v>
       </c>
       <c r="K22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="6">
         <v>30004</v>
@@ -2504,13 +2508,13 @@
         <v>30005</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G23" s="9">
         <v>36</v>
@@ -2525,17 +2529,17 @@
         <v>30005</v>
       </c>
       <c r="K23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P23" s="18" t="s">
         <v>39</v>
@@ -2553,13 +2557,13 @@
         <v>30006</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G24" s="9">
         <v>38</v>
@@ -2574,17 +2578,17 @@
         <v>30006</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M24" s="9">
         <v>3015</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P24" s="18" t="s">
         <v>39</v>
@@ -2602,13 +2606,13 @@
         <v>40001</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G25" s="9">
         <v>40</v>
@@ -2623,20 +2627,20 @@
         <v>40001</v>
       </c>
       <c r="K25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="18" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="6">
         <v>40001</v>
@@ -2651,13 +2655,13 @@
         <v>40002</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G26" s="9">
         <v>40</v>
@@ -2672,13 +2676,13 @@
         <v>40002</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="13"/>
@@ -2698,13 +2702,13 @@
         <v>40003</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G27" s="9">
         <v>42</v>
@@ -2719,17 +2723,17 @@
         <v>40003</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P27" s="18" t="s">
         <v>39</v>
@@ -2747,13 +2751,13 @@
         <v>40004</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G28" s="9">
         <v>44</v>
@@ -2768,17 +2772,17 @@
         <v>40004</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N28" s="15"/>
       <c r="O28" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P28" s="18" t="s">
         <v>39</v>
@@ -2796,13 +2800,13 @@
         <v>40005</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G29" s="9">
         <v>44</v>
@@ -2817,10 +2821,10 @@
         <v>40005</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M29" s="9">
         <v>4014</v>
@@ -2843,13 +2847,13 @@
         <v>40006</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G30" s="9">
         <v>46</v>
@@ -2864,17 +2868,17 @@
         <v>40006</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P30" s="18" t="s">
         <v>39</v>
@@ -2892,13 +2896,13 @@
         <v>40007</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G31" s="9">
         <v>48</v>
@@ -2913,17 +2917,17 @@
         <v>40007</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M31" s="9">
         <v>4015</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>39</v>
@@ -2941,13 +2945,13 @@
         <v>50001</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G32" s="9">
         <v>50</v>
@@ -2962,17 +2966,17 @@
         <v>50001</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M32" s="9">
         <v>5002</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="18" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="P32" s="18" t="s">
         <v>39</v>
@@ -2990,13 +2994,13 @@
         <v>50002</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G33" s="9">
         <v>52</v>
@@ -3011,20 +3015,20 @@
         <v>50002</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q33" s="6">
         <v>50002</v>
@@ -3039,13 +3043,13 @@
         <v>50003</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G34" s="9">
         <v>52</v>
@@ -3060,13 +3064,13 @@
         <v>50003</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
@@ -3086,13 +3090,13 @@
         <v>50004</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G35" s="9">
         <v>54</v>
@@ -3107,17 +3111,17 @@
         <v>50004</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P35" s="18" t="s">
         <v>39</v>
@@ -3135,13 +3139,13 @@
         <v>50005</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G36" s="9">
         <v>54</v>
@@ -3156,13 +3160,13 @@
         <v>50005</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="13"/>
@@ -3182,13 +3186,13 @@
         <v>50006</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G37" s="9">
         <v>54</v>
@@ -3203,13 +3207,13 @@
         <v>50006</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="13"/>
@@ -3229,13 +3233,13 @@
         <v>50007</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G38" s="9">
         <v>56</v>
@@ -3250,10 +3254,10 @@
         <v>50007</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M38" s="9">
         <v>5016</v>
@@ -3276,13 +3280,13 @@
         <v>60001</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G39" s="9">
         <v>60</v>
@@ -3297,10 +3301,10 @@
         <v>60001</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="12"/>
@@ -3321,13 +3325,13 @@
         <v>60002</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G40" s="9">
         <v>62</v>
@@ -3342,10 +3346,10 @@
         <v>60002</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="12"/>
@@ -3366,13 +3370,13 @@
         <v>60003</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G41" s="9">
         <v>65</v>
@@ -3387,10 +3391,10 @@
         <v>60003</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="12"/>
@@ -3411,13 +3415,13 @@
         <v>100001</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
@@ -3432,10 +3436,10 @@
         <v>2000010</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="12"/>
@@ -3452,13 +3456,13 @@
         <v>100101</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G43" s="9">
         <v>1</v>
@@ -3473,15 +3477,15 @@
         <v>2000004</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="12"/>
       <c r="O43" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P43" s="18" t="s">
         <v>39</v>
@@ -3497,13 +3501,13 @@
         <v>100201</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G44" s="9">
         <v>18</v>
@@ -3518,15 +3522,15 @@
         <v>2000004</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="12"/>
       <c r="O44" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P44" s="18" t="s">
         <v>39</v>
@@ -3542,13 +3546,13 @@
         <v>100301</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G45" s="9">
         <v>30</v>
@@ -3563,15 +3567,15 @@
         <v>2000004</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="12"/>
       <c r="O45" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P45" s="18" t="s">
         <v>39</v>
@@ -3587,13 +3591,13 @@
         <v>100401</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G46" s="9">
         <v>40</v>
@@ -3608,15 +3612,15 @@
         <v>2000004</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="12"/>
       <c r="O46" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P46" s="18" t="s">
         <v>39</v>
@@ -3632,13 +3636,13 @@
         <v>100501</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G47" s="9">
         <v>50</v>
@@ -3653,15 +3657,15 @@
         <v>2000004</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="12"/>
       <c r="O47" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P47" s="18" t="s">
         <v>39</v>
@@ -3677,13 +3681,13 @@
         <v>100601</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G48" s="9">
         <v>60</v>
@@ -3698,15 +3702,15 @@
         <v>2000004</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="12"/>
       <c r="O48" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P48" s="18" t="s">
         <v>39</v>
